--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_100ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_100ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -5827,28 +5827,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1280.557997175287</v>
+        <v>1366.806423784102</v>
       </c>
       <c r="AB2" t="n">
-        <v>1752.115945966901</v>
+        <v>1870.124848265119</v>
       </c>
       <c r="AC2" t="n">
-        <v>1584.896459193995</v>
+        <v>1691.642757483404</v>
       </c>
       <c r="AD2" t="n">
-        <v>1280557.997175287</v>
+        <v>1366806.423784102</v>
       </c>
       <c r="AE2" t="n">
-        <v>1752115.945966901</v>
+        <v>1870124.848265119</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.511800322238395e-06</v>
+        <v>2.179508725975474e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.10416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1584896.459193995</v>
+        <v>1691642.757483404</v>
       </c>
     </row>
     <row r="3">
@@ -5933,28 +5933,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>463.5656198933797</v>
+        <v>515.2804858117091</v>
       </c>
       <c r="AB3" t="n">
-        <v>634.2709322099087</v>
+        <v>705.029493258231</v>
       </c>
       <c r="AC3" t="n">
-        <v>573.7370046446385</v>
+        <v>637.7424679367731</v>
       </c>
       <c r="AD3" t="n">
-        <v>463565.6198933797</v>
+        <v>515280.4858117091</v>
       </c>
       <c r="AE3" t="n">
-        <v>634270.9322099086</v>
+        <v>705029.493258231</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.789164369475623e-06</v>
+        <v>4.021039016879773e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.89583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>573737.0046446385</v>
+        <v>637742.4679367731</v>
       </c>
     </row>
     <row r="4">
@@ -6039,28 +6039,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>369.9995255225087</v>
+        <v>412.9957722993341</v>
       </c>
       <c r="AB4" t="n">
-        <v>506.2496740469281</v>
+        <v>565.0790357475144</v>
       </c>
       <c r="AC4" t="n">
-        <v>457.9339156817685</v>
+        <v>511.1486856691787</v>
       </c>
       <c r="AD4" t="n">
-        <v>369999.5255225088</v>
+        <v>412995.7722993341</v>
       </c>
       <c r="AE4" t="n">
-        <v>506249.6740469281</v>
+        <v>565079.0357475143</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.250450929247678e-06</v>
+        <v>4.686059434860517e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.35</v>
       </c>
       <c r="AH4" t="n">
-        <v>457933.9156817685</v>
+        <v>511148.6856691787</v>
       </c>
     </row>
     <row r="5">
@@ -6145,28 +6145,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>328.4378511369262</v>
+        <v>371.519349259772</v>
       </c>
       <c r="AB5" t="n">
-        <v>449.383157580907</v>
+        <v>508.3291639341427</v>
       </c>
       <c r="AC5" t="n">
-        <v>406.4946597346074</v>
+        <v>459.8149419727297</v>
       </c>
       <c r="AD5" t="n">
-        <v>328437.8511369262</v>
+        <v>371519.349259772</v>
       </c>
       <c r="AE5" t="n">
-        <v>449383.157580907</v>
+        <v>508329.1639341427</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.490576696921556e-06</v>
+        <v>5.032240209052897e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.706249999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>406494.6597346073</v>
+        <v>459814.9419727297</v>
       </c>
     </row>
     <row r="6">
@@ -6251,28 +6251,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>310.2237133177965</v>
+        <v>344.6719331537099</v>
       </c>
       <c r="AB6" t="n">
-        <v>424.461770665725</v>
+        <v>471.5953447934224</v>
       </c>
       <c r="AC6" t="n">
-        <v>383.9517350092241</v>
+        <v>426.5869469745609</v>
       </c>
       <c r="AD6" t="n">
-        <v>310223.7133177965</v>
+        <v>344671.9331537099</v>
       </c>
       <c r="AE6" t="n">
-        <v>424461.770665725</v>
+        <v>471595.3447934224</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.641129426107122e-06</v>
+        <v>5.249286721183234e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.347916666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>383951.7350092241</v>
+        <v>426586.9469745609</v>
       </c>
     </row>
     <row r="7">
@@ -6357,28 +6357,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>298.1887992024142</v>
+        <v>332.6370190383276</v>
       </c>
       <c r="AB7" t="n">
-        <v>407.9950702301203</v>
+        <v>455.1286443578176</v>
       </c>
       <c r="AC7" t="n">
-        <v>369.0565933520343</v>
+        <v>411.6918053173711</v>
       </c>
       <c r="AD7" t="n">
-        <v>298188.7992024142</v>
+        <v>332637.0190383276</v>
       </c>
       <c r="AE7" t="n">
-        <v>407995.0702301203</v>
+        <v>455128.6443578176</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.747479173758554e-06</v>
+        <v>5.402607367833444e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.110416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>369056.5933520343</v>
+        <v>411691.8053173711</v>
       </c>
     </row>
     <row r="8">
@@ -6463,28 +6463,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>281.2250484731009</v>
+        <v>324.2212057413751</v>
       </c>
       <c r="AB8" t="n">
-        <v>384.7845180944101</v>
+        <v>443.6137573254481</v>
       </c>
       <c r="AC8" t="n">
-        <v>348.0612237359418</v>
+        <v>401.2758829421254</v>
       </c>
       <c r="AD8" t="n">
-        <v>281225.0484731009</v>
+        <v>324221.205741375</v>
       </c>
       <c r="AE8" t="n">
-        <v>384784.5180944101</v>
+        <v>443613.7573254481</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.821442578503789e-06</v>
+        <v>5.509237776409104e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.954166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>348061.2237359418</v>
+        <v>401275.8829421254</v>
       </c>
     </row>
     <row r="9">
@@ -6569,28 +6569,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>275.5819343389246</v>
+        <v>310.1154055208585</v>
       </c>
       <c r="AB9" t="n">
-        <v>377.063360379405</v>
+        <v>424.3135791597518</v>
       </c>
       <c r="AC9" t="n">
-        <v>341.0769624765438</v>
+        <v>383.8176866925929</v>
       </c>
       <c r="AD9" t="n">
-        <v>275581.9343389245</v>
+        <v>310115.4055208585</v>
       </c>
       <c r="AE9" t="n">
-        <v>377063.360379405</v>
+        <v>424313.5791597518</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.869730324008075e-06</v>
+        <v>5.578852500745481e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.854166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>341076.9624765438</v>
+        <v>383817.6866925929</v>
       </c>
     </row>
     <row r="10">
@@ -6675,28 +6675,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>270.2447139598462</v>
+        <v>304.7781851417802</v>
       </c>
       <c r="AB10" t="n">
-        <v>369.760739995205</v>
+        <v>417.0109587755517</v>
       </c>
       <c r="AC10" t="n">
-        <v>334.4712939325198</v>
+        <v>377.2120181485688</v>
       </c>
       <c r="AD10" t="n">
-        <v>270244.7139598462</v>
+        <v>304778.1851417802</v>
       </c>
       <c r="AE10" t="n">
-        <v>369760.739995205</v>
+        <v>417010.9587755517</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.916267456382295e-06</v>
+        <v>5.645943428429181e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.760416666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>334471.2939325198</v>
+        <v>377212.0181485688</v>
       </c>
     </row>
     <row r="11">
@@ -6781,28 +6781,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>265.7791300133402</v>
+        <v>300.3126011952742</v>
       </c>
       <c r="AB11" t="n">
-        <v>363.6507310319358</v>
+        <v>410.9009498122826</v>
       </c>
       <c r="AC11" t="n">
-        <v>328.9444156492536</v>
+        <v>371.6851398653026</v>
       </c>
       <c r="AD11" t="n">
-        <v>265779.1300133402</v>
+        <v>300312.6011952742</v>
       </c>
       <c r="AE11" t="n">
-        <v>363650.7310319358</v>
+        <v>410900.9498122826</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.952300909976128e-06</v>
+        <v>5.69789157619681e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.689583333333332</v>
       </c>
       <c r="AH11" t="n">
-        <v>328944.4156492536</v>
+        <v>371685.1398653026</v>
       </c>
     </row>
     <row r="12">
@@ -6887,28 +6887,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>262.2529126388652</v>
+        <v>296.7863838207992</v>
       </c>
       <c r="AB12" t="n">
-        <v>358.8260048544478</v>
+        <v>406.0762236347946</v>
       </c>
       <c r="AC12" t="n">
-        <v>324.5801545665994</v>
+        <v>367.3208787826484</v>
       </c>
       <c r="AD12" t="n">
-        <v>262252.9126388652</v>
+        <v>296786.3838207992</v>
       </c>
       <c r="AE12" t="n">
-        <v>358826.0048544478</v>
+        <v>406076.2236347946</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.979581297919636e-06</v>
+        <v>5.737220740701048e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.637499999999999</v>
       </c>
       <c r="AH12" t="n">
-        <v>324580.1545665994</v>
+        <v>367320.8787826484</v>
       </c>
     </row>
     <row r="13">
@@ -6993,28 +6993,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>258.4446663503575</v>
+        <v>292.9781375322914</v>
       </c>
       <c r="AB13" t="n">
-        <v>353.6153942745428</v>
+        <v>400.8656130548895</v>
       </c>
       <c r="AC13" t="n">
-        <v>319.8668373473026</v>
+        <v>362.6075615633516</v>
       </c>
       <c r="AD13" t="n">
-        <v>258444.6663503575</v>
+        <v>292978.1375322915</v>
       </c>
       <c r="AE13" t="n">
-        <v>353615.3942745429</v>
+        <v>400865.6130548895</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.007445223573166e-06</v>
+        <v>5.777391170756178e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>319866.8373473026</v>
+        <v>362607.5615633516</v>
       </c>
     </row>
     <row r="14">
@@ -7099,28 +7099,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>255.4995968808657</v>
+        <v>290.0330680628028</v>
       </c>
       <c r="AB14" t="n">
-        <v>349.5858202989236</v>
+        <v>396.83603907944</v>
       </c>
       <c r="AC14" t="n">
-        <v>316.2218402564791</v>
+        <v>358.9625644725763</v>
       </c>
       <c r="AD14" t="n">
-        <v>255499.5968808657</v>
+        <v>290033.0680628028</v>
       </c>
       <c r="AE14" t="n">
-        <v>349585.8202989236</v>
+        <v>396836.0390794399</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.027139621286394e-06</v>
+        <v>5.805783883098809e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.545833333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>316221.8402564791</v>
+        <v>358962.5644725763</v>
       </c>
     </row>
     <row r="15">
@@ -7205,28 +7205,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>252.2602324017144</v>
+        <v>286.7937035836514</v>
       </c>
       <c r="AB15" t="n">
-        <v>345.1535789078764</v>
+        <v>392.4037976883903</v>
       </c>
       <c r="AC15" t="n">
-        <v>312.2126057631021</v>
+        <v>354.9533299791987</v>
       </c>
       <c r="AD15" t="n">
-        <v>252260.2324017144</v>
+        <v>286793.7035836515</v>
       </c>
       <c r="AE15" t="n">
-        <v>345153.5789078763</v>
+        <v>392403.7976883904</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.04566694357958e-06</v>
+        <v>5.832494064339655e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.5125</v>
       </c>
       <c r="AH15" t="n">
-        <v>312212.6057631021</v>
+        <v>354953.3299791986</v>
       </c>
     </row>
     <row r="16">
@@ -7311,28 +7311,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>249.7677211488466</v>
+        <v>284.1306001301915</v>
       </c>
       <c r="AB16" t="n">
-        <v>341.7432150498687</v>
+        <v>388.760022055534</v>
       </c>
       <c r="AC16" t="n">
-        <v>309.1277222452258</v>
+        <v>351.6573111786709</v>
       </c>
       <c r="AD16" t="n">
-        <v>249767.7211488466</v>
+        <v>284130.6001301915</v>
       </c>
       <c r="AE16" t="n">
-        <v>341743.2150498687</v>
+        <v>388760.0220555339</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.065653110147819e-06</v>
+        <v>5.861307409457733e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>7.475000000000001</v>
       </c>
       <c r="AH16" t="n">
-        <v>309127.7222452258</v>
+        <v>351657.3111786708</v>
       </c>
     </row>
     <row r="17">
@@ -7417,28 +7417,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>247.4318556546179</v>
+        <v>281.7947346359628</v>
       </c>
       <c r="AB17" t="n">
-        <v>338.5471808295539</v>
+        <v>385.5639878352176</v>
       </c>
       <c r="AC17" t="n">
-        <v>306.2367130452347</v>
+        <v>348.7663019786793</v>
       </c>
       <c r="AD17" t="n">
-        <v>247431.8556546179</v>
+        <v>281794.7346359628</v>
       </c>
       <c r="AE17" t="n">
-        <v>338547.1808295539</v>
+        <v>385563.9878352176</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.076010904500701e-06</v>
+        <v>5.87623987298608e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>8</v>
+        <v>7.45625</v>
       </c>
       <c r="AH17" t="n">
-        <v>306236.7130452347</v>
+        <v>348766.3019786793</v>
       </c>
     </row>
     <row r="18">
@@ -7523,28 +7523,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>244.2068945613453</v>
+        <v>278.5697735426901</v>
       </c>
       <c r="AB18" t="n">
-        <v>334.1346467864983</v>
+        <v>381.1514537921597</v>
       </c>
       <c r="AC18" t="n">
-        <v>302.2453050582165</v>
+        <v>344.7748939916604</v>
       </c>
       <c r="AD18" t="n">
-        <v>244206.8945613453</v>
+        <v>278569.7735426901</v>
       </c>
       <c r="AE18" t="n">
-        <v>334134.6467864983</v>
+        <v>381151.4537921597</v>
       </c>
       <c r="AF18" t="n">
-        <v>4.093662920228854e-06</v>
+        <v>5.901688155900586e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>8</v>
+        <v>7.425</v>
       </c>
       <c r="AH18" t="n">
-        <v>302245.3050582165</v>
+        <v>344774.8939916604</v>
       </c>
     </row>
     <row r="19">
@@ -7629,28 +7629,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>241.7382289798608</v>
+        <v>276.1011079612055</v>
       </c>
       <c r="AB19" t="n">
-        <v>330.756909628074</v>
+        <v>377.7737166337336</v>
       </c>
       <c r="AC19" t="n">
-        <v>299.1899343935072</v>
+        <v>341.7195233269505</v>
       </c>
       <c r="AD19" t="n">
-        <v>241738.2289798608</v>
+        <v>276101.1079612055</v>
       </c>
       <c r="AE19" t="n">
-        <v>330756.909628074</v>
+        <v>377773.7166337336</v>
       </c>
       <c r="AF19" t="n">
-        <v>4.103728945726726e-06</v>
+        <v>5.916199986653487e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>8</v>
+        <v>7.40625</v>
       </c>
       <c r="AH19" t="n">
-        <v>299189.9343935072</v>
+        <v>341719.5233269506</v>
       </c>
     </row>
     <row r="20">
@@ -7735,28 +7735,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>239.2909077673773</v>
+        <v>273.653786748722</v>
       </c>
       <c r="AB20" t="n">
-        <v>327.4083767769638</v>
+        <v>374.4251837826217</v>
       </c>
       <c r="AC20" t="n">
-        <v>296.1609808180106</v>
+        <v>338.6905697514535</v>
       </c>
       <c r="AD20" t="n">
-        <v>239290.9077673773</v>
+        <v>273653.786748722</v>
       </c>
       <c r="AE20" t="n">
-        <v>327408.3767769638</v>
+        <v>374425.1837826218</v>
       </c>
       <c r="AF20" t="n">
-        <v>4.113794971224598e-06</v>
+        <v>5.930711817406388e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>8</v>
+        <v>7.3875</v>
       </c>
       <c r="AH20" t="n">
-        <v>296160.9808180106</v>
+        <v>338690.5697514535</v>
       </c>
     </row>
     <row r="21">
@@ -7841,28 +7841,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>238.4573156796231</v>
+        <v>272.8201946609678</v>
       </c>
       <c r="AB21" t="n">
-        <v>326.2678193070117</v>
+        <v>373.284626312669</v>
       </c>
       <c r="AC21" t="n">
-        <v>295.1292765522079</v>
+        <v>337.6588654856506</v>
       </c>
       <c r="AD21" t="n">
-        <v>238457.3156796231</v>
+        <v>272820.1946609678</v>
       </c>
       <c r="AE21" t="n">
-        <v>326267.8193070117</v>
+        <v>373284.626312669</v>
       </c>
       <c r="AF21" t="n">
-        <v>4.112044358094534e-06</v>
+        <v>5.928188020753709e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>8</v>
+        <v>7.391666666666666</v>
       </c>
       <c r="AH21" t="n">
-        <v>295129.2765522079</v>
+        <v>337658.8654856506</v>
       </c>
     </row>
     <row r="22">
@@ -7947,28 +7947,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>237.5313361339827</v>
+        <v>271.8942151153274</v>
       </c>
       <c r="AB22" t="n">
-        <v>325.0008532413327</v>
+        <v>372.0176602469894</v>
       </c>
       <c r="AC22" t="n">
-        <v>293.9832279496388</v>
+        <v>336.5128168830814</v>
       </c>
       <c r="AD22" t="n">
-        <v>237531.3361339827</v>
+        <v>271894.2151153274</v>
       </c>
       <c r="AE22" t="n">
-        <v>325000.8532413327</v>
+        <v>372017.6602469894</v>
       </c>
       <c r="AF22" t="n">
-        <v>4.123715112294965e-06</v>
+        <v>5.945013331771565e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>8</v>
+        <v>7.370833333333334</v>
       </c>
       <c r="AH22" t="n">
-        <v>293983.2279496389</v>
+        <v>336512.8168830814</v>
       </c>
     </row>
     <row r="23">
@@ -8053,28 +8053,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>238.1712799752307</v>
+        <v>272.5341589565754</v>
       </c>
       <c r="AB23" t="n">
-        <v>325.8764526372576</v>
+        <v>372.8932596429147</v>
       </c>
       <c r="AC23" t="n">
-        <v>294.7752613681283</v>
+        <v>337.304850301571</v>
       </c>
       <c r="AD23" t="n">
-        <v>238171.2799752307</v>
+        <v>272534.1589565754</v>
       </c>
       <c r="AE23" t="n">
-        <v>325876.4526372576</v>
+        <v>372893.2596429147</v>
       </c>
       <c r="AF23" t="n">
-        <v>4.123277459012448e-06</v>
+        <v>5.944382382608395e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>8</v>
+        <v>7.370833333333334</v>
       </c>
       <c r="AH23" t="n">
-        <v>294775.2613681284</v>
+        <v>337304.850301571</v>
       </c>
     </row>
     <row r="24">
@@ -8159,28 +8159,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>238.9348256511738</v>
+        <v>273.2977046325186</v>
       </c>
       <c r="AB24" t="n">
-        <v>326.9211695163403</v>
+        <v>373.9379765219979</v>
       </c>
       <c r="AC24" t="n">
-        <v>295.7202719345411</v>
+        <v>338.249860867984</v>
       </c>
       <c r="AD24" t="n">
-        <v>238934.8256511738</v>
+        <v>273297.7046325186</v>
       </c>
       <c r="AE24" t="n">
-        <v>326921.1695163403</v>
+        <v>373937.9765219979</v>
       </c>
       <c r="AF24" t="n">
-        <v>4.122985690157438e-06</v>
+        <v>5.943961749832949e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>8</v>
+        <v>7.370833333333334</v>
       </c>
       <c r="AH24" t="n">
-        <v>295720.2719345411</v>
+        <v>338249.860867984</v>
       </c>
     </row>
   </sheetData>
@@ -8456,28 +8456,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>792.2249299830112</v>
+        <v>867.8110602688951</v>
       </c>
       <c r="AB2" t="n">
-        <v>1083.957099699985</v>
+        <v>1187.377377781854</v>
       </c>
       <c r="AC2" t="n">
-        <v>980.5057554479623</v>
+        <v>1074.055747340969</v>
       </c>
       <c r="AD2" t="n">
-        <v>792224.9299830112</v>
+        <v>867811.0602688951</v>
       </c>
       <c r="AE2" t="n">
-        <v>1083957.099699985</v>
+        <v>1187377.377781854</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.981821022436055e-06</v>
+        <v>2.901311422814757e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.86458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>980505.7554479623</v>
+        <v>1074055.747340969</v>
       </c>
     </row>
     <row r="3">
@@ -8562,28 +8562,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>370.3555181023883</v>
+        <v>420.6893777232631</v>
       </c>
       <c r="AB3" t="n">
-        <v>506.7367588000032</v>
+        <v>575.6057661064505</v>
       </c>
       <c r="AC3" t="n">
-        <v>458.3745137496379</v>
+        <v>520.6707596570168</v>
       </c>
       <c r="AD3" t="n">
-        <v>370355.5181023882</v>
+        <v>420689.3777232631</v>
       </c>
       <c r="AE3" t="n">
-        <v>506736.7588000032</v>
+        <v>575605.7661064505</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.15443367430387e-06</v>
+        <v>4.61797223268916e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.966666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>458374.5137496379</v>
+        <v>520670.7596570168</v>
       </c>
     </row>
     <row r="4">
@@ -8668,28 +8668,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>306.7242367768396</v>
+        <v>348.7260136972831</v>
       </c>
       <c r="AB4" t="n">
-        <v>419.6736324763789</v>
+        <v>477.1423166465501</v>
       </c>
       <c r="AC4" t="n">
-        <v>379.620570008475</v>
+        <v>431.6045236192499</v>
       </c>
       <c r="AD4" t="n">
-        <v>306724.2367768396</v>
+        <v>348726.0136972831</v>
       </c>
       <c r="AE4" t="n">
-        <v>419673.6324763789</v>
+        <v>477142.3166465501</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.560697928979309e-06</v>
+        <v>5.212727818298156e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.829166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>379620.570008475</v>
+        <v>431604.5236192499</v>
       </c>
     </row>
     <row r="5">
@@ -8774,28 +8774,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>282.9025589654766</v>
+        <v>316.4870018394681</v>
       </c>
       <c r="AB5" t="n">
-        <v>387.0797619566185</v>
+        <v>433.0314783378642</v>
       </c>
       <c r="AC5" t="n">
-        <v>350.137412745336</v>
+        <v>391.7035618087947</v>
       </c>
       <c r="AD5" t="n">
-        <v>282902.5589654766</v>
+        <v>316487.0018394681</v>
       </c>
       <c r="AE5" t="n">
-        <v>387079.7619566185</v>
+        <v>433031.4783378642</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.778167019242053e-06</v>
+        <v>5.531094385483357e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.320833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>350137.412745336</v>
+        <v>391703.5618087947</v>
       </c>
     </row>
     <row r="6">
@@ -8880,28 +8880,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>269.170611392499</v>
+        <v>302.7550542664905</v>
       </c>
       <c r="AB6" t="n">
-        <v>368.2911054764996</v>
+        <v>414.2428218577454</v>
       </c>
       <c r="AC6" t="n">
-        <v>333.1419192696346</v>
+        <v>374.7080683330934</v>
       </c>
       <c r="AD6" t="n">
-        <v>269170.6113924991</v>
+        <v>302755.0542664905</v>
       </c>
       <c r="AE6" t="n">
-        <v>368291.1054764997</v>
+        <v>414242.8218577454</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.914443624729394e-06</v>
+        <v>5.730598209333626e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.03125</v>
       </c>
       <c r="AH6" t="n">
-        <v>333141.9192696346</v>
+        <v>374708.0683330934</v>
       </c>
     </row>
     <row r="7">
@@ -8986,28 +8986,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>251.3265750969334</v>
+        <v>284.9962693169487</v>
       </c>
       <c r="AB7" t="n">
-        <v>343.8761077934224</v>
+        <v>389.9444688274842</v>
       </c>
       <c r="AC7" t="n">
-        <v>311.0570546988693</v>
+        <v>352.7287160130876</v>
       </c>
       <c r="AD7" t="n">
-        <v>251326.5750969334</v>
+        <v>284996.2693169487</v>
       </c>
       <c r="AE7" t="n">
-        <v>343876.1077934224</v>
+        <v>389944.4688274842</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.006200187449552e-06</v>
+        <v>5.864926365370129e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.847916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>311057.0546988693</v>
+        <v>352728.7160130877</v>
       </c>
     </row>
     <row r="8">
@@ -9092,28 +9092,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>245.3149148048172</v>
+        <v>278.9846090248324</v>
       </c>
       <c r="AB8" t="n">
-        <v>335.6506889660191</v>
+        <v>381.7190500000766</v>
       </c>
       <c r="AC8" t="n">
-        <v>303.6166582999028</v>
+        <v>345.28831961412</v>
       </c>
       <c r="AD8" t="n">
-        <v>245314.9148048172</v>
+        <v>278984.6090248324</v>
       </c>
       <c r="AE8" t="n">
-        <v>335650.6889660191</v>
+        <v>381719.0500000766</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.062642546754387e-06</v>
+        <v>5.947555856089954e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.739583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>303616.6582999028</v>
+        <v>345288.31961412</v>
       </c>
     </row>
     <row r="9">
@@ -9198,28 +9198,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>239.6103690842169</v>
+        <v>273.280063304232</v>
       </c>
       <c r="AB9" t="n">
-        <v>327.8454778443022</v>
+        <v>373.9138388783558</v>
       </c>
       <c r="AC9" t="n">
-        <v>296.5563655729575</v>
+        <v>338.2280268871735</v>
       </c>
       <c r="AD9" t="n">
-        <v>239610.3690842169</v>
+        <v>273280.063304232</v>
       </c>
       <c r="AE9" t="n">
-        <v>327845.4778443022</v>
+        <v>373913.8388783557</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.114406528683687e-06</v>
+        <v>6.023336378327652e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.641666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>296556.3655729576</v>
+        <v>338228.0268871735</v>
       </c>
     </row>
     <row r="10">
@@ -9304,28 +9304,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>235.1019897936788</v>
+        <v>268.7716840136939</v>
       </c>
       <c r="AB10" t="n">
-        <v>321.6769144033342</v>
+        <v>367.7452754373845</v>
       </c>
       <c r="AC10" t="n">
-        <v>290.9765211691604</v>
+        <v>332.6481824833755</v>
       </c>
       <c r="AD10" t="n">
-        <v>235101.9897936788</v>
+        <v>268771.6840136939</v>
       </c>
       <c r="AE10" t="n">
-        <v>321676.9144033342</v>
+        <v>367745.2754373845</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.152588124684016e-06</v>
+        <v>6.079232798520473e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.570833333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>290976.5211691604</v>
+        <v>332648.1824833755</v>
       </c>
     </row>
     <row r="11">
@@ -9410,28 +9410,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>230.3425080343552</v>
+        <v>264.0122022543702</v>
       </c>
       <c r="AB11" t="n">
-        <v>315.1647814867149</v>
+        <v>361.2331425207619</v>
       </c>
       <c r="AC11" t="n">
-        <v>285.0858970782652</v>
+        <v>326.7575583924793</v>
       </c>
       <c r="AD11" t="n">
-        <v>230342.5080343552</v>
+        <v>264012.2022543702</v>
       </c>
       <c r="AE11" t="n">
-        <v>315164.7814867149</v>
+        <v>361233.1425207619</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.187449581901708e-06</v>
+        <v>6.130268660435658e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.508333333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>285085.8970782652</v>
+        <v>326757.5583924793</v>
       </c>
     </row>
     <row r="12">
@@ -9516,28 +9516,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>227.0764060477576</v>
+        <v>260.5755080671803</v>
       </c>
       <c r="AB12" t="n">
-        <v>310.6959566584039</v>
+        <v>356.5309059176017</v>
       </c>
       <c r="AC12" t="n">
-        <v>281.0435706195318</v>
+        <v>322.5040966510941</v>
       </c>
       <c r="AD12" t="n">
-        <v>227076.4060477576</v>
+        <v>260575.5080671803</v>
       </c>
       <c r="AE12" t="n">
-        <v>310695.9566584039</v>
+        <v>356530.9059176017</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.206012176004634e-06</v>
+        <v>6.15744359989699e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.475000000000001</v>
       </c>
       <c r="AH12" t="n">
-        <v>281043.5706195318</v>
+        <v>322504.0966510942</v>
       </c>
     </row>
     <row r="13">
@@ -9622,28 +9622,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>222.8488046234316</v>
+        <v>256.3479066428511</v>
       </c>
       <c r="AB13" t="n">
-        <v>304.9115658810325</v>
+        <v>350.7465151400569</v>
       </c>
       <c r="AC13" t="n">
-        <v>275.8112339795073</v>
+        <v>317.2717600110205</v>
       </c>
       <c r="AD13" t="n">
-        <v>222848.8046234316</v>
+        <v>256347.9066428511</v>
       </c>
       <c r="AE13" t="n">
-        <v>304911.5658810324</v>
+        <v>350746.515140057</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.231969624668889e-06</v>
+        <v>6.195444328249422e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.429166666666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>275811.2339795073</v>
+        <v>317271.7600110205</v>
       </c>
     </row>
     <row r="14">
@@ -9728,28 +9728,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>219.4506282183617</v>
+        <v>252.9497302377812</v>
       </c>
       <c r="AB14" t="n">
-        <v>300.2620310066557</v>
+        <v>346.0969802656803</v>
       </c>
       <c r="AC14" t="n">
-        <v>271.6054441878764</v>
+        <v>313.0659702193896</v>
       </c>
       <c r="AD14" t="n">
-        <v>219450.6282183617</v>
+        <v>252949.7302377812</v>
       </c>
       <c r="AE14" t="n">
-        <v>300262.0310066557</v>
+        <v>346096.9802656802</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.254154188352876e-06</v>
+        <v>6.227921694922722e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.389583333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>271605.4441878764</v>
+        <v>313065.9702193895</v>
       </c>
     </row>
     <row r="15">
@@ -9834,28 +9834,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>217.8097395263161</v>
+        <v>251.3088415457355</v>
       </c>
       <c r="AB15" t="n">
-        <v>298.0168947073</v>
+        <v>343.8518439663245</v>
       </c>
       <c r="AC15" t="n">
-        <v>269.5745805458619</v>
+        <v>311.035106577375</v>
       </c>
       <c r="AD15" t="n">
-        <v>217809.7395263161</v>
+        <v>251308.8415457355</v>
       </c>
       <c r="AE15" t="n">
-        <v>298016.8947072999</v>
+        <v>343851.8439663245</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.261699958313415e-06</v>
+        <v>6.238968418280987e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.377083333333332</v>
       </c>
       <c r="AH15" t="n">
-        <v>269574.5805458619</v>
+        <v>311035.106577375</v>
       </c>
     </row>
     <row r="16">
@@ -9940,28 +9940,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>216.4259592741844</v>
+        <v>249.9250612936038</v>
       </c>
       <c r="AB16" t="n">
-        <v>296.1235455182582</v>
+        <v>341.9584947772827</v>
       </c>
       <c r="AC16" t="n">
-        <v>267.8619299460894</v>
+        <v>309.3224559776025</v>
       </c>
       <c r="AD16" t="n">
-        <v>216425.9592741844</v>
+        <v>249925.0612936039</v>
       </c>
       <c r="AE16" t="n">
-        <v>296123.5455182582</v>
+        <v>341958.4947772827</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.271509459262116e-06</v>
+        <v>6.253329158646732e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>7.360416666666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>267861.9299460894</v>
+        <v>309322.4559776025</v>
       </c>
     </row>
     <row r="17">
@@ -10046,28 +10046,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>217.1737705668876</v>
+        <v>250.6728725863071</v>
       </c>
       <c r="AB17" t="n">
-        <v>297.14673392004</v>
+        <v>342.9816831790646</v>
       </c>
       <c r="AC17" t="n">
-        <v>268.7874666828595</v>
+        <v>310.2479927143726</v>
       </c>
       <c r="AD17" t="n">
-        <v>217173.7705668876</v>
+        <v>250672.8725863071</v>
       </c>
       <c r="AE17" t="n">
-        <v>297146.7339200401</v>
+        <v>342981.6831790646</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.271056713064483e-06</v>
+        <v>6.252666355245236e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>8</v>
+        <v>7.360416666666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>268787.4666828595</v>
+        <v>310247.9927143726</v>
       </c>
     </row>
   </sheetData>
@@ -10343,28 +10343,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>295.203935299307</v>
+        <v>333.9551276244857</v>
       </c>
       <c r="AB2" t="n">
-        <v>403.9110477549872</v>
+        <v>456.9321386762459</v>
       </c>
       <c r="AC2" t="n">
-        <v>365.3623442499666</v>
+        <v>413.3231766692687</v>
       </c>
       <c r="AD2" t="n">
-        <v>295203.935299307</v>
+        <v>333955.1276244856</v>
       </c>
       <c r="AE2" t="n">
-        <v>403911.0477549873</v>
+        <v>456932.1386762459</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.42541627413483e-06</v>
+        <v>5.299541785202647e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.24166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>365362.3442499666</v>
+        <v>413323.1766692686</v>
       </c>
     </row>
     <row r="3">
@@ -10449,28 +10449,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>207.7575472615406</v>
+        <v>238.741450852479</v>
       </c>
       <c r="AB3" t="n">
-        <v>284.263041779217</v>
+        <v>326.6565855856722</v>
       </c>
       <c r="AC3" t="n">
-        <v>257.133376037577</v>
+        <v>295.48093952287</v>
       </c>
       <c r="AD3" t="n">
-        <v>207757.5472615406</v>
+        <v>238741.450852479</v>
       </c>
       <c r="AE3" t="n">
-        <v>284263.041779217</v>
+        <v>326656.5855856722</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.241143939043591e-06</v>
+        <v>6.561573170460089e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.272916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>257133.376037577</v>
+        <v>295480.93952287</v>
       </c>
     </row>
     <row r="4">
@@ -10555,28 +10555,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>179.7964796958454</v>
+        <v>210.8656346328043</v>
       </c>
       <c r="AB4" t="n">
-        <v>246.0054755806109</v>
+        <v>288.5156640397153</v>
       </c>
       <c r="AC4" t="n">
-        <v>222.5270582621223</v>
+        <v>260.9801339981275</v>
       </c>
       <c r="AD4" t="n">
-        <v>179796.4796958454</v>
+        <v>210865.6346328043</v>
       </c>
       <c r="AE4" t="n">
-        <v>246005.4755806109</v>
+        <v>288515.6640397153</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.530117653532327e-06</v>
+        <v>7.008651175642122e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.743750000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>222527.0582621223</v>
+        <v>260980.1339981275</v>
       </c>
     </row>
     <row r="5">
@@ -10661,28 +10661,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>168.9831213771913</v>
+        <v>200.0522763141502</v>
       </c>
       <c r="AB5" t="n">
-        <v>231.2101616773353</v>
+        <v>273.7203501364397</v>
       </c>
       <c r="AC5" t="n">
-        <v>209.1437883524171</v>
+        <v>247.5968640884224</v>
       </c>
       <c r="AD5" t="n">
-        <v>168983.1213771912</v>
+        <v>200052.2763141502</v>
       </c>
       <c r="AE5" t="n">
-        <v>231210.1616773353</v>
+        <v>273720.3501364397</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.664332135145102e-06</v>
+        <v>7.216297545181796e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.520833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>209143.7883524171</v>
+        <v>247596.8640884224</v>
       </c>
     </row>
     <row r="6">
@@ -10767,28 +10767,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>168.0186846385504</v>
+        <v>198.9172473749171</v>
       </c>
       <c r="AB6" t="n">
-        <v>229.8905767835815</v>
+        <v>272.1673534678391</v>
       </c>
       <c r="AC6" t="n">
-        <v>207.9501427888738</v>
+        <v>246.192083242228</v>
       </c>
       <c r="AD6" t="n">
-        <v>168018.6846385504</v>
+        <v>198917.2473749171</v>
       </c>
       <c r="AE6" t="n">
-        <v>229890.5767835815</v>
+        <v>272167.3534678391</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.686897681614502e-06</v>
+        <v>7.251209230901139e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.485416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>207950.1427888738</v>
+        <v>246192.083242228</v>
       </c>
     </row>
   </sheetData>
@@ -11064,28 +11064,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>414.7828406152389</v>
+        <v>462.9116336857063</v>
       </c>
       <c r="AB2" t="n">
-        <v>567.5241814572253</v>
+        <v>633.3761194287347</v>
       </c>
       <c r="AC2" t="n">
-        <v>513.3604701041381</v>
+        <v>572.9275915394221</v>
       </c>
       <c r="AD2" t="n">
-        <v>414782.8406152389</v>
+        <v>462911.6336857063</v>
       </c>
       <c r="AE2" t="n">
-        <v>567524.1814572252</v>
+        <v>633376.1194287346</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.844426695107509e-06</v>
+        <v>4.298764907984077e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="AH2" t="n">
-        <v>513360.4701041381</v>
+        <v>572927.5915394222</v>
       </c>
     </row>
     <row r="3">
@@ -11170,28 +11170,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>256.9585759117056</v>
+        <v>296.9805626158602</v>
       </c>
       <c r="AB3" t="n">
-        <v>351.58205977453</v>
+        <v>406.3419076287608</v>
       </c>
       <c r="AC3" t="n">
-        <v>318.0275614382739</v>
+        <v>367.5612062691203</v>
       </c>
       <c r="AD3" t="n">
-        <v>256958.5759117056</v>
+        <v>296980.5626158601</v>
       </c>
       <c r="AE3" t="n">
-        <v>351582.05977453</v>
+        <v>406341.9076287608</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.814586275869709e-06</v>
+        <v>5.764961230813717e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.797916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>318027.5614382739</v>
+        <v>367561.2062691203</v>
       </c>
     </row>
     <row r="4">
@@ -11276,28 +11276,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>229.0206619053767</v>
+        <v>261.0212726063373</v>
       </c>
       <c r="AB4" t="n">
-        <v>313.3561732973119</v>
+        <v>357.1408206258199</v>
       </c>
       <c r="AC4" t="n">
-        <v>283.4498999160608</v>
+        <v>323.0558019555807</v>
       </c>
       <c r="AD4" t="n">
-        <v>229020.6619053767</v>
+        <v>261021.2726063373</v>
       </c>
       <c r="AE4" t="n">
-        <v>313356.1732973119</v>
+        <v>357140.8206258198</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.141946665791462e-06</v>
+        <v>6.259699013608441e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.104166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>283449.8999160607</v>
+        <v>323055.8019555807</v>
       </c>
     </row>
     <row r="5">
@@ -11382,28 +11382,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>207.1924600760556</v>
+        <v>239.2783221230335</v>
       </c>
       <c r="AB5" t="n">
-        <v>283.4898645621496</v>
+        <v>327.3911565431333</v>
       </c>
       <c r="AC5" t="n">
-        <v>256.4339897689452</v>
+        <v>296.1454040591281</v>
       </c>
       <c r="AD5" t="n">
-        <v>207192.4600760556</v>
+        <v>239278.3221230335</v>
       </c>
       <c r="AE5" t="n">
-        <v>283489.8645621496</v>
+        <v>327391.1565431333</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.310621039929294e-06</v>
+        <v>6.514615577873241e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.785416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>256433.9897689452</v>
+        <v>296145.4040591281</v>
       </c>
     </row>
     <row r="6">
@@ -11488,28 +11488,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>198.2217431000136</v>
+        <v>230.3076051469915</v>
       </c>
       <c r="AB6" t="n">
-        <v>271.2157338354334</v>
+        <v>315.1170258164171</v>
       </c>
       <c r="AC6" t="n">
-        <v>245.3312848519323</v>
+        <v>285.0426991421151</v>
       </c>
       <c r="AD6" t="n">
-        <v>198221.7431000136</v>
+        <v>230307.6051469915</v>
       </c>
       <c r="AE6" t="n">
-        <v>271215.7338354334</v>
+        <v>315117.0258164171</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.409860213252029e-06</v>
+        <v>6.664595141948807e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.610416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>245331.2848519323</v>
+        <v>285042.6991421151</v>
       </c>
     </row>
     <row r="7">
@@ -11594,28 +11594,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>191.3368904484662</v>
+        <v>223.2521602948519</v>
       </c>
       <c r="AB7" t="n">
-        <v>261.7955746993289</v>
+        <v>305.4634549054656</v>
       </c>
       <c r="AC7" t="n">
-        <v>236.8101724824981</v>
+        <v>276.3104514900299</v>
       </c>
       <c r="AD7" t="n">
-        <v>191336.8904484662</v>
+        <v>223252.1602948519</v>
       </c>
       <c r="AE7" t="n">
-        <v>261795.5746993289</v>
+        <v>305463.4549054656</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.478167696188458e-06</v>
+        <v>6.767827828909911e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.495833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>236810.1724824981</v>
+        <v>276310.4514900299</v>
       </c>
     </row>
     <row r="8">
@@ -11700,28 +11700,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>185.8076823341312</v>
+        <v>217.7229521805169</v>
       </c>
       <c r="AB8" t="n">
-        <v>254.2302682258533</v>
+        <v>297.8981484319901</v>
       </c>
       <c r="AC8" t="n">
-        <v>229.9668882408743</v>
+        <v>269.4671672484061</v>
       </c>
       <c r="AD8" t="n">
-        <v>185807.6823341312</v>
+        <v>217722.9521805169</v>
       </c>
       <c r="AE8" t="n">
-        <v>254230.2682258533</v>
+        <v>297898.1484319901</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.520859873023726e-06</v>
+        <v>6.832348258260601e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.425</v>
       </c>
       <c r="AH8" t="n">
-        <v>229966.8882408743</v>
+        <v>269467.1672484061</v>
       </c>
     </row>
     <row r="9">
@@ -11806,28 +11806,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>185.8971208279313</v>
+        <v>217.812390674317</v>
       </c>
       <c r="AB9" t="n">
-        <v>254.3526419188184</v>
+        <v>298.0205221249552</v>
       </c>
       <c r="AC9" t="n">
-        <v>230.0775827603354</v>
+        <v>269.5778617678672</v>
       </c>
       <c r="AD9" t="n">
-        <v>185897.1208279313</v>
+        <v>217812.390674317</v>
       </c>
       <c r="AE9" t="n">
-        <v>254352.6419188183</v>
+        <v>298020.5221249551</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.529237205836684e-06</v>
+        <v>6.845008870812434e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.410416666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>230077.5827603354</v>
+        <v>269577.8617678672</v>
       </c>
     </row>
   </sheetData>
@@ -12103,28 +12103,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>223.0342461075815</v>
+        <v>260.6577120926978</v>
       </c>
       <c r="AB2" t="n">
-        <v>305.165295100747</v>
+        <v>356.6433810919004</v>
       </c>
       <c r="AC2" t="n">
-        <v>276.0407476386036</v>
+        <v>322.6058373526178</v>
       </c>
       <c r="AD2" t="n">
-        <v>223034.2461075815</v>
+        <v>260657.7120926978</v>
       </c>
       <c r="AE2" t="n">
-        <v>305165.295100747</v>
+        <v>356643.3810919004</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.930463757511004e-06</v>
+        <v>6.212050765222722e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.270833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>276040.7476386036</v>
+        <v>322605.8373526178</v>
       </c>
     </row>
     <row r="3">
@@ -12209,28 +12209,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.5465375159804</v>
+        <v>193.7817840645446</v>
       </c>
       <c r="AB3" t="n">
-        <v>223.7715877932779</v>
+        <v>265.1407860059395</v>
       </c>
       <c r="AC3" t="n">
-        <v>202.4151415197477</v>
+        <v>239.8361215170405</v>
       </c>
       <c r="AD3" t="n">
-        <v>163546.5375159804</v>
+        <v>193781.7840645446</v>
       </c>
       <c r="AE3" t="n">
-        <v>223771.5877932779</v>
+        <v>265140.7860059395</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.62567994743252e-06</v>
+        <v>7.310831604085371e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.877083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>202415.1415197477</v>
+        <v>239836.1215170405</v>
       </c>
     </row>
     <row r="4">
@@ -12315,28 +12315,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>154.6440932479861</v>
+        <v>184.8793397965503</v>
       </c>
       <c r="AB4" t="n">
-        <v>211.5908707976918</v>
+        <v>252.9600690103534</v>
       </c>
       <c r="AC4" t="n">
-        <v>191.3969350584728</v>
+        <v>228.8179150557656</v>
       </c>
       <c r="AD4" t="n">
-        <v>154644.093247986</v>
+        <v>184879.3397965503</v>
       </c>
       <c r="AE4" t="n">
-        <v>211590.8707976918</v>
+        <v>252960.0690103534</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.777140883400327e-06</v>
+        <v>7.550213794388529e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.627083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>191396.9350584729</v>
+        <v>228817.9150557656</v>
       </c>
     </row>
     <row r="5">
@@ -12421,28 +12421,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>155.5419783574896</v>
+        <v>185.7772249060538</v>
       </c>
       <c r="AB5" t="n">
-        <v>212.8193968164093</v>
+        <v>254.188595029071</v>
       </c>
       <c r="AC5" t="n">
-        <v>192.5082122782115</v>
+        <v>229.9291922755042</v>
       </c>
       <c r="AD5" t="n">
-        <v>155541.9783574896</v>
+        <v>185777.2249060539</v>
       </c>
       <c r="AE5" t="n">
-        <v>212819.3968164093</v>
+        <v>254188.595029071</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.778015369173814e-06</v>
+        <v>7.55159590865125e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.625</v>
       </c>
       <c r="AH5" t="n">
-        <v>192508.2122782115</v>
+        <v>229929.1922755042</v>
       </c>
     </row>
   </sheetData>
@@ -12718,28 +12718,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>888.7255016304666</v>
+        <v>964.907804647858</v>
       </c>
       <c r="AB2" t="n">
-        <v>1215.993439132789</v>
+        <v>1320.229427047191</v>
       </c>
       <c r="AC2" t="n">
-        <v>1099.940731959466</v>
+        <v>1194.228583483445</v>
       </c>
       <c r="AD2" t="n">
-        <v>888725.5016304667</v>
+        <v>964907.804647858</v>
       </c>
       <c r="AE2" t="n">
-        <v>1215993.439132789</v>
+        <v>1320229.427047191</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.857232814162773e-06</v>
+        <v>2.707634255078822e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.77708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1099940.731959466</v>
+        <v>1194228.583483445</v>
       </c>
     </row>
     <row r="3">
@@ -12824,28 +12824,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>399.0884609146693</v>
+        <v>441.3741228308503</v>
       </c>
       <c r="AB3" t="n">
-        <v>546.0504387637397</v>
+        <v>603.9075469092012</v>
       </c>
       <c r="AC3" t="n">
-        <v>493.9361512747319</v>
+        <v>546.2714582217517</v>
       </c>
       <c r="AD3" t="n">
-        <v>399088.4609146693</v>
+        <v>441374.1228308503</v>
       </c>
       <c r="AE3" t="n">
-        <v>546050.4387637398</v>
+        <v>603907.5469092012</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.05625322575425e-06</v>
+        <v>4.455669673259439e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.19583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>493936.1512747319</v>
+        <v>546271.4582217517</v>
       </c>
     </row>
     <row r="4">
@@ -12930,28 +12930,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>319.7916056993361</v>
+        <v>362.0771781069661</v>
       </c>
       <c r="AB4" t="n">
-        <v>437.5529831277687</v>
+        <v>495.4099688036817</v>
       </c>
       <c r="AC4" t="n">
-        <v>395.7935405275225</v>
+        <v>448.1287366933157</v>
       </c>
       <c r="AD4" t="n">
-        <v>319791.6056993361</v>
+        <v>362077.1781069661</v>
       </c>
       <c r="AE4" t="n">
-        <v>437552.9831277687</v>
+        <v>495409.9688036817</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.479955960697328e-06</v>
+        <v>5.073380081105977e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.954166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>395793.5405275224</v>
+        <v>448128.7366933157</v>
       </c>
     </row>
     <row r="5">
@@ -13036,28 +13036,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>294.0425869596012</v>
+        <v>327.854066223342</v>
       </c>
       <c r="AB5" t="n">
-        <v>402.3220397215292</v>
+        <v>448.5843973073685</v>
       </c>
       <c r="AC5" t="n">
-        <v>363.9249889130348</v>
+        <v>405.7721320205083</v>
       </c>
       <c r="AD5" t="n">
-        <v>294042.5869596013</v>
+        <v>327854.066223342</v>
       </c>
       <c r="AE5" t="n">
-        <v>402322.0397215292</v>
+        <v>448584.3973073685</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.703099088312955e-06</v>
+        <v>5.398697387320956e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.414583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>363924.9889130348</v>
+        <v>405772.1320205083</v>
       </c>
     </row>
     <row r="6">
@@ -13142,28 +13142,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>279.4534693185946</v>
+        <v>313.2649485823353</v>
       </c>
       <c r="AB6" t="n">
-        <v>382.3605653386584</v>
+        <v>428.6229229244976</v>
       </c>
       <c r="AC6" t="n">
-        <v>345.8686096291599</v>
+        <v>387.7157527366334</v>
       </c>
       <c r="AD6" t="n">
-        <v>279453.4693185946</v>
+        <v>313264.9485823353</v>
       </c>
       <c r="AE6" t="n">
-        <v>382360.5653386585</v>
+        <v>428622.9229244976</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.840843606097132e-06</v>
+        <v>5.599513231170817e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.112499999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>345868.60962916</v>
+        <v>387715.7527366334</v>
       </c>
     </row>
     <row r="7">
@@ -13248,28 +13248,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>261.2672309450398</v>
+        <v>303.4674624980981</v>
       </c>
       <c r="AB7" t="n">
-        <v>357.4773516757486</v>
+        <v>415.217570229464</v>
       </c>
       <c r="AC7" t="n">
-        <v>323.3602149544286</v>
+        <v>375.5897880882831</v>
       </c>
       <c r="AD7" t="n">
-        <v>261267.2309450398</v>
+        <v>303467.4624980981</v>
       </c>
       <c r="AE7" t="n">
-        <v>357477.3516757486</v>
+        <v>415217.570229464</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.932374165145901e-06</v>
+        <v>5.732954378224147e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.922916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>323360.2149544285</v>
+        <v>375589.7880882831</v>
       </c>
     </row>
     <row r="8">
@@ -13354,28 +13354,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>254.3674127482003</v>
+        <v>288.2641433579648</v>
       </c>
       <c r="AB8" t="n">
-        <v>348.036716020173</v>
+        <v>394.4157182588303</v>
       </c>
       <c r="AC8" t="n">
-        <v>314.8205803159103</v>
+        <v>356.7732356741441</v>
       </c>
       <c r="AD8" t="n">
-        <v>254367.4127482003</v>
+        <v>288264.1433579648</v>
       </c>
       <c r="AE8" t="n">
-        <v>348036.716020173</v>
+        <v>394415.7182588303</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.996535292322245e-06</v>
+        <v>5.826494005815452e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.795833333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>314820.5803159103</v>
+        <v>356773.2356741441</v>
       </c>
     </row>
     <row r="9">
@@ -13460,28 +13460,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>249.0327468417906</v>
+        <v>282.929477451555</v>
       </c>
       <c r="AB9" t="n">
-        <v>340.7375907781772</v>
+        <v>387.1165930168308</v>
       </c>
       <c r="AC9" t="n">
-        <v>308.2180733426217</v>
+        <v>350.1707287008543</v>
       </c>
       <c r="AD9" t="n">
-        <v>249032.7468417906</v>
+        <v>282929.477451555</v>
       </c>
       <c r="AE9" t="n">
-        <v>340737.5907781771</v>
+        <v>387116.5930168308</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.047385602904894e-06</v>
+        <v>5.900627976400634e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.697916666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>308218.0733426217</v>
+        <v>350170.7287008543</v>
       </c>
     </row>
     <row r="10">
@@ -13566,28 +13566,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>243.8346457736029</v>
+        <v>277.7313763833672</v>
       </c>
       <c r="AB10" t="n">
-        <v>333.625319572652</v>
+        <v>380.004321811302</v>
       </c>
       <c r="AC10" t="n">
-        <v>301.7845873188143</v>
+        <v>343.7372426770459</v>
       </c>
       <c r="AD10" t="n">
-        <v>243834.6457736029</v>
+        <v>277731.3763833672</v>
       </c>
       <c r="AE10" t="n">
-        <v>333625.319572652</v>
+        <v>380004.321811302</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.092253524007232e-06</v>
+        <v>5.96604030338756e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.614583333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>301784.5873188143</v>
+        <v>343737.2426770459</v>
       </c>
     </row>
     <row r="11">
@@ -13672,28 +13672,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>239.3567134673815</v>
+        <v>273.2534440771458</v>
       </c>
       <c r="AB11" t="n">
-        <v>327.4984150388522</v>
+        <v>373.877417277499</v>
       </c>
       <c r="AC11" t="n">
-        <v>296.2424259545538</v>
+        <v>338.1950813127845</v>
       </c>
       <c r="AD11" t="n">
-        <v>239356.7134673815</v>
+        <v>273253.4440771458</v>
       </c>
       <c r="AE11" t="n">
-        <v>327498.4150388522</v>
+        <v>373877.417277499</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.119323836405643e-06</v>
+        <v>6.005505740669672e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.564583333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>296242.4259545538</v>
+        <v>338195.0813127845</v>
       </c>
     </row>
     <row r="12">
@@ -13778,28 +13778,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>235.7587732140024</v>
+        <v>269.6555038237667</v>
       </c>
       <c r="AB12" t="n">
-        <v>322.57555445426</v>
+        <v>368.9545566929042</v>
       </c>
       <c r="AC12" t="n">
-        <v>291.7893962748754</v>
+        <v>333.7420516331053</v>
       </c>
       <c r="AD12" t="n">
-        <v>235758.7732140024</v>
+        <v>269655.5038237667</v>
       </c>
       <c r="AE12" t="n">
-        <v>322575.55445426</v>
+        <v>368954.5566929043</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.149086224070193e-06</v>
+        <v>6.048895917570999e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.510416666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>291789.3962748754</v>
+        <v>333742.0516331053</v>
       </c>
     </row>
     <row r="13">
@@ -13884,28 +13884,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>231.7914261209849</v>
+        <v>265.5175645301569</v>
       </c>
       <c r="AB13" t="n">
-        <v>317.1472551345952</v>
+        <v>363.2928455983897</v>
       </c>
       <c r="AC13" t="n">
-        <v>286.8791662236117</v>
+        <v>328.6206862991898</v>
       </c>
       <c r="AD13" t="n">
-        <v>231791.4261209849</v>
+        <v>265517.5645301569</v>
       </c>
       <c r="AE13" t="n">
-        <v>317147.2551345952</v>
+        <v>363292.8455983897</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.177801693575689e-06</v>
+        <v>6.090759806842632e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.458333333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>286879.1662236117</v>
+        <v>328620.6862991898</v>
       </c>
     </row>
     <row r="14">
@@ -13990,28 +13990,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>228.402825661311</v>
+        <v>262.1289640704829</v>
       </c>
       <c r="AB14" t="n">
-        <v>312.5108224911702</v>
+        <v>358.6564129549623</v>
       </c>
       <c r="AC14" t="n">
-        <v>282.6852282043996</v>
+        <v>324.426748279977</v>
       </c>
       <c r="AD14" t="n">
-        <v>228402.825661311</v>
+        <v>262128.9640704829</v>
       </c>
       <c r="AE14" t="n">
-        <v>312510.8224911702</v>
+        <v>358656.4129549623</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.197992258071742e-06</v>
+        <v>6.120195353986749e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.422916666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>282685.2282043996</v>
+        <v>324426.748279977</v>
       </c>
     </row>
     <row r="15">
@@ -14096,28 +14096,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>226.2490775126276</v>
+        <v>259.9752159217995</v>
       </c>
       <c r="AB15" t="n">
-        <v>309.5639692574807</v>
+        <v>355.7095597212712</v>
       </c>
       <c r="AC15" t="n">
-        <v>280.0196185073979</v>
+        <v>321.7611385829749</v>
       </c>
       <c r="AD15" t="n">
-        <v>226249.0775126276</v>
+        <v>259975.2159217995</v>
       </c>
       <c r="AE15" t="n">
-        <v>309563.9692574807</v>
+        <v>355709.5597212712</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.203825087815046e-06</v>
+        <v>6.128698956495049e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.412499999999999</v>
       </c>
       <c r="AH15" t="n">
-        <v>280019.6185073979</v>
+        <v>321761.1385829749</v>
       </c>
     </row>
     <row r="16">
@@ -14202,28 +14202,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>222.5644020718077</v>
+        <v>256.2905404809764</v>
       </c>
       <c r="AB16" t="n">
-        <v>304.5224337629457</v>
+        <v>350.6680242265634</v>
       </c>
       <c r="AC16" t="n">
-        <v>275.4592400846203</v>
+        <v>317.2007601601481</v>
       </c>
       <c r="AD16" t="n">
-        <v>222564.4020718077</v>
+        <v>256290.5404809764</v>
       </c>
       <c r="AE16" t="n">
-        <v>304522.4337629457</v>
+        <v>350668.0242265635</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.224464331522122e-06</v>
+        <v>6.158788626909035e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>7.375</v>
       </c>
       <c r="AH16" t="n">
-        <v>275459.2400846203</v>
+        <v>317200.7601601481</v>
       </c>
     </row>
     <row r="17">
@@ -14308,28 +14308,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>221.5328566588134</v>
+        <v>255.2589950679821</v>
       </c>
       <c r="AB17" t="n">
-        <v>303.1110278203158</v>
+        <v>349.2566182839336</v>
       </c>
       <c r="AC17" t="n">
-        <v>274.1825367442338</v>
+        <v>315.9240568197616</v>
       </c>
       <c r="AD17" t="n">
-        <v>221532.8566588134</v>
+        <v>255258.9950679821</v>
       </c>
       <c r="AE17" t="n">
-        <v>303111.0278203158</v>
+        <v>349256.6182839336</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.224015652311098e-06</v>
+        <v>6.158134503639166e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>8</v>
+        <v>7.377083333333332</v>
       </c>
       <c r="AH17" t="n">
-        <v>274182.5367442338</v>
+        <v>315924.0568197616</v>
       </c>
     </row>
     <row r="18">
@@ -14414,28 +14414,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>221.8053438975005</v>
+        <v>255.5314823066692</v>
       </c>
       <c r="AB18" t="n">
-        <v>303.4838568815758</v>
+        <v>349.6294473451936</v>
       </c>
       <c r="AC18" t="n">
-        <v>274.5197835231562</v>
+        <v>316.261303598684</v>
       </c>
       <c r="AD18" t="n">
-        <v>221805.3438975005</v>
+        <v>255531.4823066692</v>
       </c>
       <c r="AE18" t="n">
-        <v>303483.8568815758</v>
+        <v>349629.4473451936</v>
       </c>
       <c r="AF18" t="n">
-        <v>4.232091878109518e-06</v>
+        <v>6.169908722496812e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>8</v>
+        <v>7.362500000000001</v>
       </c>
       <c r="AH18" t="n">
-        <v>274519.7835231562</v>
+        <v>316261.303598684</v>
       </c>
     </row>
   </sheetData>
@@ -14711,28 +14711,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>184.3825488252025</v>
+        <v>221.4740178758493</v>
       </c>
       <c r="AB2" t="n">
-        <v>252.2803376864848</v>
+        <v>303.0305220016803</v>
       </c>
       <c r="AC2" t="n">
-        <v>228.2030563354379</v>
+        <v>274.1097142879384</v>
       </c>
       <c r="AD2" t="n">
-        <v>184382.5488252025</v>
+        <v>221474.0178758493</v>
       </c>
       <c r="AE2" t="n">
-        <v>252280.3376864848</v>
+        <v>303030.5220016803</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.247172231175611e-06</v>
+        <v>6.804967565238378e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.779166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>228203.0563354379</v>
+        <v>274109.7142879384</v>
       </c>
     </row>
     <row r="3">
@@ -14817,28 +14817,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.8109661877505</v>
+        <v>176.5524141119252</v>
       </c>
       <c r="AB3" t="n">
-        <v>200.8732407807062</v>
+        <v>241.5668019306208</v>
       </c>
       <c r="AC3" t="n">
-        <v>181.7021806080168</v>
+        <v>218.5120053955682</v>
       </c>
       <c r="AD3" t="n">
-        <v>146810.9661877505</v>
+        <v>176552.4141119252</v>
       </c>
       <c r="AE3" t="n">
-        <v>200873.2407807062</v>
+        <v>241566.8019306207</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.805073358259533e-06</v>
+        <v>7.698856220506112e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.760416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>181702.1806080168</v>
+        <v>218512.0053955682</v>
       </c>
     </row>
     <row r="4">
@@ -14923,28 +14923,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>147.3084108504284</v>
+        <v>177.0498587746032</v>
       </c>
       <c r="AB4" t="n">
-        <v>201.5538665138916</v>
+        <v>242.2474276638061</v>
       </c>
       <c r="AC4" t="n">
-        <v>182.3178483764913</v>
+        <v>219.1276731640428</v>
       </c>
       <c r="AD4" t="n">
-        <v>147308.4108504284</v>
+        <v>177049.8587746032</v>
       </c>
       <c r="AE4" t="n">
-        <v>201553.8665138916</v>
+        <v>242247.4276638061</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.813127753741975e-06</v>
+        <v>7.711761254027781e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.747916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>182317.8483764913</v>
+        <v>219127.6731640428</v>
       </c>
     </row>
   </sheetData>
@@ -15220,28 +15220,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>576.3018986906114</v>
+        <v>633.9343884444218</v>
       </c>
       <c r="AB2" t="n">
-        <v>788.5216824338842</v>
+        <v>867.3769974810501</v>
       </c>
       <c r="AC2" t="n">
-        <v>713.2662797595256</v>
+        <v>784.5957542127196</v>
       </c>
       <c r="AD2" t="n">
-        <v>576301.8986906115</v>
+        <v>633934.3884444218</v>
       </c>
       <c r="AE2" t="n">
-        <v>788521.6824338841</v>
+        <v>867376.9974810501</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.376658928556272e-06</v>
+        <v>3.528965841963801e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.62916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>713266.2797595256</v>
+        <v>784595.7542127196</v>
       </c>
     </row>
     <row r="3">
@@ -15326,28 +15326,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>316.0045047144952</v>
+        <v>356.9999766237675</v>
       </c>
       <c r="AB3" t="n">
-        <v>432.3713044852054</v>
+        <v>488.4631177440484</v>
       </c>
       <c r="AC3" t="n">
-        <v>391.1063940220739</v>
+        <v>441.844883348847</v>
       </c>
       <c r="AD3" t="n">
-        <v>316004.5047144952</v>
+        <v>356999.9766237675</v>
       </c>
       <c r="AE3" t="n">
-        <v>432371.3044852054</v>
+        <v>488463.1177440484</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.458711233680452e-06</v>
+        <v>5.135643846165705e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.366666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>391106.3940220738</v>
+        <v>441844.883348847</v>
       </c>
     </row>
     <row r="4">
@@ -15432,28 +15432,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>268.3451956468695</v>
+        <v>301.1927955887405</v>
       </c>
       <c r="AB4" t="n">
-        <v>367.1617352385565</v>
+        <v>412.1052706128592</v>
       </c>
       <c r="AC4" t="n">
-        <v>332.1203345421198</v>
+        <v>372.7745219789471</v>
       </c>
       <c r="AD4" t="n">
-        <v>268345.1956468695</v>
+        <v>301192.7955887405</v>
       </c>
       <c r="AE4" t="n">
-        <v>367161.7352385565</v>
+        <v>412105.2706128592</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.823489895531484e-06</v>
+        <v>5.6772829606732e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.472916666666668</v>
       </c>
       <c r="AH4" t="n">
-        <v>332120.3345421198</v>
+        <v>372774.5219789471</v>
       </c>
     </row>
     <row r="5">
@@ -15538,28 +15538,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>249.1384309178299</v>
+        <v>281.986030859704</v>
       </c>
       <c r="AB5" t="n">
-        <v>340.8821923934664</v>
+        <v>385.8257277679341</v>
       </c>
       <c r="AC5" t="n">
-        <v>308.3488743826974</v>
+        <v>349.0030618195717</v>
       </c>
       <c r="AD5" t="n">
-        <v>249138.4309178299</v>
+        <v>281986.030859704</v>
       </c>
       <c r="AE5" t="n">
-        <v>340882.1923934664</v>
+        <v>385825.7277679341</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.029202670309367e-06</v>
+        <v>5.982734174864768e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.039583333333335</v>
       </c>
       <c r="AH5" t="n">
-        <v>308348.8743826974</v>
+        <v>349003.0618195717</v>
       </c>
     </row>
     <row r="6">
@@ -15644,28 +15644,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>230.2520924189358</v>
+        <v>263.1849437068303</v>
       </c>
       <c r="AB6" t="n">
-        <v>315.0410708528427</v>
+        <v>360.1012508799464</v>
       </c>
       <c r="AC6" t="n">
-        <v>284.9739932136607</v>
+        <v>325.7336929012434</v>
       </c>
       <c r="AD6" t="n">
-        <v>230252.0924189358</v>
+        <v>263184.9437068303</v>
       </c>
       <c r="AE6" t="n">
-        <v>315041.0708528426</v>
+        <v>360101.2508799464</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.14286558668324e-06</v>
+        <v>6.151505783008408e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.818750000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>284973.9932136607</v>
+        <v>325733.6929012434</v>
       </c>
     </row>
     <row r="7">
@@ -15750,28 +15750,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>222.8284313046348</v>
+        <v>255.7612825925259</v>
       </c>
       <c r="AB7" t="n">
-        <v>304.883690207447</v>
+        <v>349.9438702343758</v>
       </c>
       <c r="AC7" t="n">
-        <v>275.7860187210852</v>
+        <v>316.545718408618</v>
       </c>
       <c r="AD7" t="n">
-        <v>222828.4313046348</v>
+        <v>255761.2825925259</v>
       </c>
       <c r="AE7" t="n">
-        <v>304883.690207447</v>
+        <v>349943.8702343758</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.217967075887864e-06</v>
+        <v>6.263019718348186e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.679166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>275786.0187210852</v>
+        <v>316545.718408618</v>
       </c>
     </row>
     <row r="8">
@@ -15856,28 +15856,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>216.7265951979601</v>
+        <v>249.6594464858512</v>
       </c>
       <c r="AB8" t="n">
-        <v>296.5348888522887</v>
+        <v>341.5950688792175</v>
       </c>
       <c r="AC8" t="n">
-        <v>268.2340152496442</v>
+        <v>308.9937149371771</v>
       </c>
       <c r="AD8" t="n">
-        <v>216726.5951979601</v>
+        <v>249659.4464858513</v>
       </c>
       <c r="AE8" t="n">
-        <v>296534.8888522887</v>
+        <v>341595.0688792175</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.276897644021512e-06</v>
+        <v>6.35052237154441e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.575</v>
       </c>
       <c r="AH8" t="n">
-        <v>268234.0152496442</v>
+        <v>308993.7149371771</v>
       </c>
     </row>
     <row r="9">
@@ -15962,28 +15962,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>211.5675138838289</v>
+        <v>244.3297729711278</v>
       </c>
       <c r="AB9" t="n">
-        <v>289.4760061956937</v>
+        <v>334.3027744477756</v>
       </c>
       <c r="AC9" t="n">
-        <v>261.8488224465883</v>
+        <v>302.3973868514702</v>
       </c>
       <c r="AD9" t="n">
-        <v>211567.5138838289</v>
+        <v>244329.7729711278</v>
       </c>
       <c r="AE9" t="n">
-        <v>289476.0061956937</v>
+        <v>334302.7744477756</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.322767083597835e-06</v>
+        <v>6.418631296855456e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.493749999999999</v>
       </c>
       <c r="AH9" t="n">
-        <v>261848.8224465883</v>
+        <v>302397.3868514702</v>
       </c>
     </row>
     <row r="10">
@@ -16068,28 +16068,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>205.8822835709325</v>
+        <v>238.6445426582315</v>
       </c>
       <c r="AB10" t="n">
-        <v>281.6972232669331</v>
+        <v>326.523991519015</v>
       </c>
       <c r="AC10" t="n">
-        <v>254.8124356429558</v>
+        <v>295.3610000478376</v>
       </c>
       <c r="AD10" t="n">
-        <v>205882.2835709325</v>
+        <v>238644.5426582315</v>
       </c>
       <c r="AE10" t="n">
-        <v>281697.2232669331</v>
+        <v>326523.991519015</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.356819311622293e-06</v>
+        <v>6.469193515984672e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.435416666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>254812.4356429558</v>
+        <v>295361.0000478376</v>
       </c>
     </row>
     <row r="11">
@@ -16174,28 +16174,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>202.5962624210084</v>
+        <v>235.3585215083074</v>
       </c>
       <c r="AB11" t="n">
-        <v>277.2011441605874</v>
+        <v>322.0279124126693</v>
       </c>
       <c r="AC11" t="n">
-        <v>250.7454560162316</v>
+        <v>291.2940204211134</v>
       </c>
       <c r="AD11" t="n">
-        <v>202596.2624210084</v>
+        <v>235358.5215083074</v>
       </c>
       <c r="AE11" t="n">
-        <v>277201.1441605874</v>
+        <v>322027.9124126693</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.384807444245133e-06</v>
+        <v>6.510751504310055e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.3875</v>
       </c>
       <c r="AH11" t="n">
-        <v>250745.4560162316</v>
+        <v>291294.0204211134</v>
       </c>
     </row>
     <row r="12">
@@ -16280,28 +16280,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>201.3315256751264</v>
+        <v>234.0937847624253</v>
       </c>
       <c r="AB12" t="n">
-        <v>275.4706755486251</v>
+        <v>320.297443800707</v>
       </c>
       <c r="AC12" t="n">
-        <v>249.1801408998665</v>
+        <v>289.7287053047484</v>
       </c>
       <c r="AD12" t="n">
-        <v>201331.5256751264</v>
+        <v>234093.7847624253</v>
       </c>
       <c r="AE12" t="n">
-        <v>275470.6755486251</v>
+        <v>320297.443800707</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.389783112266973e-06</v>
+        <v>6.518139591123456e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.379166666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>249180.1408998665</v>
+        <v>289728.7053047484</v>
       </c>
     </row>
     <row r="13">
@@ -16386,28 +16386,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>201.9111098913745</v>
+        <v>234.6733689786735</v>
       </c>
       <c r="AB13" t="n">
-        <v>276.2636882427465</v>
+        <v>321.0904564948283</v>
       </c>
       <c r="AC13" t="n">
-        <v>249.8974695754615</v>
+        <v>290.4460339803433</v>
       </c>
       <c r="AD13" t="n">
-        <v>201911.1098913745</v>
+        <v>234673.3689786735</v>
       </c>
       <c r="AE13" t="n">
-        <v>276263.6882427465</v>
+        <v>321090.4564948283</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.390094091518337e-06</v>
+        <v>6.518601346549294e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.379166666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>249897.4695754615</v>
+        <v>290446.0339803433</v>
       </c>
     </row>
   </sheetData>
@@ -16683,28 +16683,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>718.6164845524675</v>
+        <v>777.1261169125455</v>
       </c>
       <c r="AB2" t="n">
-        <v>983.2427772864912</v>
+        <v>1063.298237544353</v>
       </c>
       <c r="AC2" t="n">
-        <v>889.4034666121729</v>
+        <v>961.8185461015685</v>
       </c>
       <c r="AD2" t="n">
-        <v>718616.4845524675</v>
+        <v>777126.1169125455</v>
       </c>
       <c r="AE2" t="n">
-        <v>983242.7772864912</v>
+        <v>1063298.237544353</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.105765874958943e-06</v>
+        <v>3.096407593667364e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.07291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>889403.4666121729</v>
+        <v>961818.5461015685</v>
       </c>
     </row>
     <row r="3">
@@ -16789,28 +16789,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>352.0195669218771</v>
+        <v>393.8120975301106</v>
       </c>
       <c r="AB3" t="n">
-        <v>481.648701469753</v>
+        <v>538.8310856042625</v>
       </c>
       <c r="AC3" t="n">
-        <v>435.680825399677</v>
+        <v>487.4058030483694</v>
       </c>
       <c r="AD3" t="n">
-        <v>352019.5669218771</v>
+        <v>393812.0975301106</v>
       </c>
       <c r="AE3" t="n">
-        <v>481648.7014697529</v>
+        <v>538831.0856042625</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.249296381212873e-06</v>
+        <v>4.77790342625796e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.768749999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>435680.825399677</v>
+        <v>487405.8030483694</v>
       </c>
     </row>
     <row r="4">
@@ -16895,28 +16895,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>293.1079120907302</v>
+        <v>334.8151018443921</v>
       </c>
       <c r="AB4" t="n">
-        <v>401.0431763309948</v>
+        <v>458.1087933433068</v>
       </c>
       <c r="AC4" t="n">
-        <v>362.768178449597</v>
+        <v>414.3875330663504</v>
       </c>
       <c r="AD4" t="n">
-        <v>293107.9120907302</v>
+        <v>334815.1018443921</v>
       </c>
       <c r="AE4" t="n">
-        <v>401043.1763309948</v>
+        <v>458108.7933433068</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.650583265501822e-06</v>
+        <v>5.367972707238992e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.69375</v>
       </c>
       <c r="AH4" t="n">
-        <v>362768.178449597</v>
+        <v>414387.5330663504</v>
       </c>
     </row>
     <row r="5">
@@ -17001,28 +17001,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>271.4455260201129</v>
+        <v>304.794299160679</v>
       </c>
       <c r="AB5" t="n">
-        <v>371.4037440321509</v>
+        <v>417.0330066871094</v>
       </c>
       <c r="AC5" t="n">
-        <v>335.9574919701503</v>
+        <v>377.2319618383919</v>
       </c>
       <c r="AD5" t="n">
-        <v>271445.5260201129</v>
+        <v>304794.299160679</v>
       </c>
       <c r="AE5" t="n">
-        <v>371403.7440321509</v>
+        <v>417033.0066871094</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.858844150400453e-06</v>
+        <v>5.674208359137654e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.225</v>
       </c>
       <c r="AH5" t="n">
-        <v>335957.4919701503</v>
+        <v>377231.9618383919</v>
       </c>
     </row>
     <row r="6">
@@ -17107,28 +17107,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>250.8789123766224</v>
+        <v>292.5007612757158</v>
       </c>
       <c r="AB6" t="n">
-        <v>343.2635959100079</v>
+        <v>400.2124458002885</v>
       </c>
       <c r="AC6" t="n">
-        <v>310.5030000899418</v>
+        <v>362.0167316748037</v>
       </c>
       <c r="AD6" t="n">
-        <v>250878.9123766224</v>
+        <v>292500.7612757158</v>
       </c>
       <c r="AE6" t="n">
-        <v>343263.5959100079</v>
+        <v>400212.4458002885</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.983922560423698e-06</v>
+        <v>5.858128966459381e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.966666666666668</v>
       </c>
       <c r="AH6" t="n">
-        <v>310503.0000899418</v>
+        <v>362016.7316748037</v>
       </c>
     </row>
     <row r="7">
@@ -17213,28 +17213,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>241.7901662848448</v>
+        <v>275.2241907714346</v>
       </c>
       <c r="AB7" t="n">
-        <v>330.8279725400653</v>
+        <v>376.5738798478329</v>
       </c>
       <c r="AC7" t="n">
-        <v>299.2542151609155</v>
+        <v>340.6341972799148</v>
       </c>
       <c r="AD7" t="n">
-        <v>241790.1662848448</v>
+        <v>275224.1907714346</v>
       </c>
       <c r="AE7" t="n">
-        <v>330827.9725400653</v>
+        <v>376573.879847833</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.076703013169321e-06</v>
+        <v>5.994557285410576e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.785416666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>299254.2151609155</v>
+        <v>340634.1972799148</v>
       </c>
     </row>
     <row r="8">
@@ -17319,28 +17319,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>235.5345306220437</v>
+        <v>268.9685551086335</v>
       </c>
       <c r="AB8" t="n">
-        <v>322.2687358470574</v>
+        <v>368.0146431548206</v>
       </c>
       <c r="AC8" t="n">
-        <v>291.5118600049215</v>
+        <v>332.8918421239194</v>
       </c>
       <c r="AD8" t="n">
-        <v>235534.5306220437</v>
+        <v>268968.5551086335</v>
       </c>
       <c r="AE8" t="n">
-        <v>322268.7358470574</v>
+        <v>368014.6431548206</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.134290880390742e-06</v>
+        <v>6.079236931656144e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.677083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>291511.8600049214</v>
+        <v>332891.8421239195</v>
       </c>
     </row>
     <row r="9">
@@ -17425,28 +17425,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>229.9715917302599</v>
+        <v>263.4056162168495</v>
       </c>
       <c r="AB9" t="n">
-        <v>314.6572774357795</v>
+        <v>360.4031847435389</v>
       </c>
       <c r="AC9" t="n">
-        <v>284.6268285016645</v>
+        <v>326.0068106206614</v>
       </c>
       <c r="AD9" t="n">
-        <v>229971.5917302599</v>
+        <v>263405.6162168495</v>
       </c>
       <c r="AE9" t="n">
-        <v>314657.2774357795</v>
+        <v>360403.1847435388</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.187765328524919e-06</v>
+        <v>6.157868031741317e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.579166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>284626.8285016645</v>
+        <v>326006.8106206614</v>
       </c>
     </row>
     <row r="10">
@@ -17531,28 +17531,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>225.5419003562004</v>
+        <v>258.9759248427899</v>
       </c>
       <c r="AB10" t="n">
-        <v>308.5963782736032</v>
+        <v>354.3422855813594</v>
       </c>
       <c r="AC10" t="n">
-        <v>279.144373048999</v>
+        <v>320.524355167995</v>
       </c>
       <c r="AD10" t="n">
-        <v>225541.9003562004</v>
+        <v>258975.9248427899</v>
       </c>
       <c r="AE10" t="n">
-        <v>308596.3782736032</v>
+        <v>354342.2855813594</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.220672681222873e-06</v>
+        <v>6.206256401024499e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.520833333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>279144.373048999</v>
+        <v>320524.355167995</v>
       </c>
     </row>
     <row r="11">
@@ -17637,28 +17637,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>221.4496861827547</v>
+        <v>254.7131184687488</v>
       </c>
       <c r="AB11" t="n">
-        <v>302.9972303057498</v>
+        <v>348.5097258384872</v>
       </c>
       <c r="AC11" t="n">
-        <v>274.0795999047422</v>
+        <v>315.2484467410383</v>
       </c>
       <c r="AD11" t="n">
-        <v>221449.6861827547</v>
+        <v>254713.1184687488</v>
       </c>
       <c r="AE11" t="n">
-        <v>302997.2303057499</v>
+        <v>348509.7258384872</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.245505544601423e-06</v>
+        <v>6.24277169821505e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.475000000000001</v>
       </c>
       <c r="AH11" t="n">
-        <v>274079.5999047422</v>
+        <v>315248.4467410383</v>
       </c>
     </row>
     <row r="12">
@@ -17743,28 +17743,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>217.7620745158845</v>
+        <v>251.0255068018786</v>
       </c>
       <c r="AB12" t="n">
-        <v>297.9516773371957</v>
+        <v>343.464172869933</v>
       </c>
       <c r="AC12" t="n">
-        <v>269.5155874300272</v>
+        <v>310.6844342663233</v>
       </c>
       <c r="AD12" t="n">
-        <v>217762.0745158845</v>
+        <v>251025.5068018786</v>
       </c>
       <c r="AE12" t="n">
-        <v>297951.6773371957</v>
+        <v>343464.172869933</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.273842431646883e-06</v>
+        <v>6.284439460653345e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.427083333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>269515.5874300272</v>
+        <v>310684.4342663232</v>
       </c>
     </row>
     <row r="13">
@@ -17849,28 +17849,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>214.335142024725</v>
+        <v>247.5985743107192</v>
       </c>
       <c r="AB13" t="n">
-        <v>293.2627971172022</v>
+        <v>338.7752926499395</v>
       </c>
       <c r="AC13" t="n">
-        <v>265.2742073573436</v>
+        <v>306.4430541936397</v>
       </c>
       <c r="AD13" t="n">
-        <v>214335.142024725</v>
+        <v>247598.5743107192</v>
       </c>
       <c r="AE13" t="n">
-        <v>293262.7971172022</v>
+        <v>338775.2926499395</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.294409527083105e-06</v>
+        <v>6.314682191455335e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.391666666666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>265274.2073573436</v>
+        <v>306443.0541936397</v>
       </c>
     </row>
     <row r="14">
@@ -17955,28 +17955,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>212.1917535480579</v>
+        <v>245.455185834052</v>
       </c>
       <c r="AB14" t="n">
-        <v>290.3301184438018</v>
+        <v>335.8426139765391</v>
       </c>
       <c r="AC14" t="n">
-        <v>262.6214194204913</v>
+        <v>303.7902662567873</v>
       </c>
       <c r="AD14" t="n">
-        <v>212191.7535480579</v>
+        <v>245455.185834052</v>
       </c>
       <c r="AE14" t="n">
-        <v>290330.1184438018</v>
+        <v>335842.6139765391</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.302026969837261e-06</v>
+        <v>6.325883202863479e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.377083333333332</v>
       </c>
       <c r="AH14" t="n">
-        <v>262621.4194204913</v>
+        <v>303790.2662567873</v>
       </c>
     </row>
     <row r="15">
@@ -18061,28 +18061,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>211.6879017702211</v>
+        <v>244.9513340562152</v>
       </c>
       <c r="AB15" t="n">
-        <v>289.6407262129942</v>
+        <v>335.1532217457315</v>
       </c>
       <c r="AC15" t="n">
-        <v>261.9978218166237</v>
+        <v>303.1666686529197</v>
       </c>
       <c r="AD15" t="n">
-        <v>211687.9017702211</v>
+        <v>244951.3340562152</v>
       </c>
       <c r="AE15" t="n">
-        <v>289640.7262129942</v>
+        <v>335153.2217457315</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.311320249997332e-06</v>
+        <v>6.339548436781414e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.362500000000001</v>
       </c>
       <c r="AH15" t="n">
-        <v>261997.8218166237</v>
+        <v>303166.6686529197</v>
       </c>
     </row>
     <row r="16">
@@ -18167,28 +18167,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>212.3841685421537</v>
+        <v>245.6476008281478</v>
       </c>
       <c r="AB16" t="n">
-        <v>290.593389127474</v>
+        <v>336.1058846602114</v>
       </c>
       <c r="AC16" t="n">
-        <v>262.8595639196166</v>
+        <v>304.0284107559127</v>
       </c>
       <c r="AD16" t="n">
-        <v>212384.1685421537</v>
+        <v>245647.6008281478</v>
       </c>
       <c r="AE16" t="n">
-        <v>290593.389127474</v>
+        <v>336105.8846602113</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.311015552287166e-06</v>
+        <v>6.339100396325089e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>7.362500000000001</v>
       </c>
       <c r="AH16" t="n">
-        <v>262859.5639196166</v>
+        <v>304028.4107559127</v>
       </c>
     </row>
   </sheetData>
@@ -18464,28 +18464,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1125.253073000352</v>
+        <v>1210.987684229072</v>
       </c>
       <c r="AB2" t="n">
-        <v>1539.62089714106</v>
+        <v>1656.926774568298</v>
       </c>
       <c r="AC2" t="n">
-        <v>1392.681639589417</v>
+        <v>1498.792008714833</v>
       </c>
       <c r="AD2" t="n">
-        <v>1125253.073000352</v>
+        <v>1210987.684229072</v>
       </c>
       <c r="AE2" t="n">
-        <v>1539620.89714106</v>
+        <v>1656926.774568298</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.622556682887459e-06</v>
+        <v>2.347470399307855e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.88125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1392681.639589417</v>
+        <v>1498792.008714833</v>
       </c>
     </row>
     <row r="3">
@@ -18570,28 +18570,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>440.5779843450513</v>
+        <v>491.9846147404548</v>
       </c>
       <c r="AB3" t="n">
-        <v>602.8182351097799</v>
+        <v>673.1550547172436</v>
       </c>
       <c r="AC3" t="n">
-        <v>545.2861088116085</v>
+        <v>608.9100810740822</v>
       </c>
       <c r="AD3" t="n">
-        <v>440577.9843450513</v>
+        <v>491984.6147404548</v>
       </c>
       <c r="AE3" t="n">
-        <v>602818.23510978</v>
+        <v>673155.0547172436</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.877633834278112e-06</v>
+        <v>4.163281515683834e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.64583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>545286.1088116085</v>
+        <v>608910.0810740822</v>
       </c>
     </row>
     <row r="4">
@@ -18676,28 +18676,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>355.2568297439747</v>
+        <v>389.5849000858424</v>
       </c>
       <c r="AB4" t="n">
-        <v>486.0780672809029</v>
+        <v>533.0472475702255</v>
       </c>
       <c r="AC4" t="n">
-        <v>439.6874587544648</v>
+        <v>482.1739663986332</v>
       </c>
       <c r="AD4" t="n">
-        <v>355256.8297439747</v>
+        <v>389584.9000858424</v>
       </c>
       <c r="AE4" t="n">
-        <v>486078.0672809029</v>
+        <v>533047.2475702255</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.328344023969073e-06</v>
+        <v>4.815356626602682e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.204166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>439687.4587544649</v>
+        <v>482173.9663986332</v>
       </c>
     </row>
     <row r="5">
@@ -18782,28 +18782,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>317.0209836247009</v>
+        <v>359.8456188117752</v>
       </c>
       <c r="AB5" t="n">
-        <v>433.7620957740336</v>
+        <v>492.3566509265536</v>
       </c>
       <c r="AC5" t="n">
-        <v>392.3644501422839</v>
+        <v>445.3668231890222</v>
       </c>
       <c r="AD5" t="n">
-        <v>317020.9836247009</v>
+        <v>359845.6188117752</v>
       </c>
       <c r="AE5" t="n">
-        <v>433762.0957740336</v>
+        <v>492356.6509265536</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.55700775805372e-06</v>
+        <v>5.146181030347808e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.612500000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>392364.4501422839</v>
+        <v>445366.8231890223</v>
       </c>
     </row>
     <row r="6">
@@ -18888,28 +18888,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>299.7646777849359</v>
+        <v>334.007407272232</v>
       </c>
       <c r="AB6" t="n">
-        <v>410.1512568295828</v>
+        <v>457.0036699967077</v>
       </c>
       <c r="AC6" t="n">
-        <v>371.006996528671</v>
+        <v>413.3878811409004</v>
       </c>
       <c r="AD6" t="n">
-        <v>299764.6777849359</v>
+        <v>334007.407272232</v>
       </c>
       <c r="AE6" t="n">
-        <v>410151.2568295828</v>
+        <v>457003.6699967078</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.706999403562621e-06</v>
+        <v>5.363184819299595e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.264583333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>371006.9965286711</v>
+        <v>413387.8811409004</v>
       </c>
     </row>
     <row r="7">
@@ -18994,28 +18994,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>289.1156236841851</v>
+        <v>323.3583531714813</v>
       </c>
       <c r="AB7" t="n">
-        <v>395.5807512058257</v>
+        <v>442.4331643729506</v>
       </c>
       <c r="AC7" t="n">
-        <v>357.8270795118122</v>
+        <v>400.2079641240417</v>
       </c>
       <c r="AD7" t="n">
-        <v>289115.6236841851</v>
+        <v>323358.3531714813</v>
       </c>
       <c r="AE7" t="n">
-        <v>395580.7512058257</v>
+        <v>442433.1643729506</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.803611669346295e-06</v>
+        <v>5.502960789242068e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.054166666666665</v>
       </c>
       <c r="AH7" t="n">
-        <v>357827.0795118122</v>
+        <v>400207.9641240417</v>
       </c>
     </row>
     <row r="8">
@@ -19100,28 +19100,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>271.8533410892866</v>
+        <v>306.1813219226033</v>
       </c>
       <c r="AB8" t="n">
-        <v>371.9617346013255</v>
+        <v>418.9307924210998</v>
       </c>
       <c r="AC8" t="n">
-        <v>336.4622287025476</v>
+        <v>378.9486255654892</v>
       </c>
       <c r="AD8" t="n">
-        <v>271853.3410892866</v>
+        <v>306181.3219226033</v>
       </c>
       <c r="AE8" t="n">
-        <v>371961.7346013255</v>
+        <v>418930.7924210998</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.882724909820598e-06</v>
+        <v>5.617419650473501e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.889583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>336462.2287025476</v>
+        <v>378948.6255654892</v>
       </c>
     </row>
     <row r="9">
@@ -19206,28 +19206,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>265.8754301824393</v>
+        <v>300.203411015756</v>
       </c>
       <c r="AB9" t="n">
-        <v>363.7824931717608</v>
+        <v>410.751550991535</v>
       </c>
       <c r="AC9" t="n">
-        <v>329.063602595383</v>
+        <v>371.5499994583247</v>
       </c>
       <c r="AD9" t="n">
-        <v>265875.4301824393</v>
+        <v>300203.411015756</v>
       </c>
       <c r="AE9" t="n">
-        <v>363782.4931717608</v>
+        <v>410751.550991535</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.935810188280119e-06</v>
+        <v>5.694221971857417e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.783333333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>329063.602595383</v>
+        <v>371549.9994583247</v>
       </c>
     </row>
     <row r="10">
@@ -19312,28 +19312,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>261.2227943376049</v>
+        <v>295.5507751709216</v>
       </c>
       <c r="AB10" t="n">
-        <v>357.4165515490515</v>
+        <v>404.3856093688257</v>
       </c>
       <c r="AC10" t="n">
-        <v>323.3052175064899</v>
+        <v>365.7916143694316</v>
       </c>
       <c r="AD10" t="n">
-        <v>261222.7943376049</v>
+        <v>295550.7751709216</v>
       </c>
       <c r="AE10" t="n">
-        <v>357416.5515490515</v>
+        <v>404385.6093688257</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.974631555353012e-06</v>
+        <v>5.750387658409645e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.708333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>323305.2175064899</v>
+        <v>365791.6143694316</v>
       </c>
     </row>
     <row r="11">
@@ -19418,28 +19418,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>256.4793868934715</v>
+        <v>290.8073677267914</v>
       </c>
       <c r="AB11" t="n">
-        <v>350.9264122194549</v>
+        <v>397.8954700393994</v>
       </c>
       <c r="AC11" t="n">
-        <v>317.4344879656478</v>
+        <v>359.920884828638</v>
       </c>
       <c r="AD11" t="n">
-        <v>256479.3868934715</v>
+        <v>290807.3677267914</v>
       </c>
       <c r="AE11" t="n">
-        <v>350926.4122194549</v>
+        <v>397895.4700393993</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.014041124957311e-06</v>
+        <v>5.807404340212663e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.631250000000001</v>
       </c>
       <c r="AH11" t="n">
-        <v>317434.4879656478</v>
+        <v>359920.8848286379</v>
       </c>
     </row>
     <row r="12">
@@ -19524,28 +19524,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>252.7943737878865</v>
+        <v>287.1223546212064</v>
       </c>
       <c r="AB12" t="n">
-        <v>345.8844147170917</v>
+        <v>392.8534725370336</v>
       </c>
       <c r="AC12" t="n">
-        <v>312.8736916284206</v>
+        <v>355.36008849141</v>
       </c>
       <c r="AD12" t="n">
-        <v>252794.3737878866</v>
+        <v>287122.3546212064</v>
       </c>
       <c r="AE12" t="n">
-        <v>345884.4147170917</v>
+        <v>392853.4725370336</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.041686643933461e-06</v>
+        <v>5.847401116999855e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.579166666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>312873.6916284206</v>
+        <v>355360.08849141</v>
       </c>
     </row>
     <row r="13">
@@ -19630,28 +19630,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>249.8894871812581</v>
+        <v>284.2174680145779</v>
       </c>
       <c r="AB13" t="n">
-        <v>341.9098207073521</v>
+        <v>388.878878527292</v>
       </c>
       <c r="AC13" t="n">
-        <v>309.2784272925917</v>
+        <v>351.7648241555804</v>
       </c>
       <c r="AD13" t="n">
-        <v>249889.4871812581</v>
+        <v>284217.4680145779</v>
       </c>
       <c r="AE13" t="n">
-        <v>341909.8207073521</v>
+        <v>388878.878527292</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.058009264180018e-06</v>
+        <v>5.871016235209314e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.550000000000001</v>
       </c>
       <c r="AH13" t="n">
-        <v>309278.4272925917</v>
+        <v>351764.8241555804</v>
       </c>
     </row>
     <row r="14">
@@ -19736,28 +19736,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>246.7971476183397</v>
+        <v>281.1251284516595</v>
       </c>
       <c r="AB14" t="n">
-        <v>337.6787452929762</v>
+        <v>384.6478031129139</v>
       </c>
       <c r="AC14" t="n">
-        <v>305.4511597774107</v>
+        <v>347.9375566403989</v>
       </c>
       <c r="AD14" t="n">
-        <v>246797.1476183397</v>
+        <v>281125.1284516595</v>
       </c>
       <c r="AE14" t="n">
-        <v>337678.7452929762</v>
+        <v>384647.8031129139</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.076390593286501e-06</v>
+        <v>5.897609836796543e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.514583333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>305451.1597774107</v>
+        <v>347937.5566403989</v>
       </c>
     </row>
     <row r="15">
@@ -19842,28 +19842,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>244.2349932676502</v>
+        <v>278.3923819003778</v>
       </c>
       <c r="AB15" t="n">
-        <v>334.1730926760922</v>
+        <v>380.908738721181</v>
       </c>
       <c r="AC15" t="n">
-        <v>302.2800817260667</v>
+        <v>344.5553433064032</v>
       </c>
       <c r="AD15" t="n">
-        <v>244234.9932676502</v>
+        <v>278392.3819003777</v>
       </c>
       <c r="AE15" t="n">
-        <v>334173.0926760922</v>
+        <v>380908.738721181</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.095801276822947e-06</v>
+        <v>5.925692680072656e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.479166666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>302280.0817260667</v>
+        <v>344555.3433064032</v>
       </c>
     </row>
     <row r="16">
@@ -19948,28 +19948,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>240.633647058894</v>
+        <v>274.7910356916215</v>
       </c>
       <c r="AB16" t="n">
-        <v>329.2455719130929</v>
+        <v>375.9812179581792</v>
       </c>
       <c r="AC16" t="n">
-        <v>297.8228366288677</v>
+        <v>340.0980982092034</v>
       </c>
       <c r="AD16" t="n">
-        <v>240633.647058894</v>
+        <v>274791.0356916215</v>
       </c>
       <c r="AE16" t="n">
-        <v>329245.5719130929</v>
+        <v>375981.2179581792</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.11815297301643e-06</v>
+        <v>5.958030499602727e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>7.439583333333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>297822.8366288677</v>
+        <v>340098.0982092035</v>
       </c>
     </row>
     <row r="17">
@@ -20054,28 +20054,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>238.6271198892527</v>
+        <v>272.7845085219802</v>
       </c>
       <c r="AB17" t="n">
-        <v>326.5001529178599</v>
+        <v>373.2357989629448</v>
       </c>
       <c r="AC17" t="n">
-        <v>295.339436569319</v>
+        <v>337.6146981496544</v>
       </c>
       <c r="AD17" t="n">
-        <v>238627.1198892527</v>
+        <v>272784.5085219802</v>
       </c>
       <c r="AE17" t="n">
-        <v>326500.1529178598</v>
+        <v>373235.7989629448</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.125799605924727e-06</v>
+        <v>5.969093437863014e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>8</v>
+        <v>7.425</v>
       </c>
       <c r="AH17" t="n">
-        <v>295339.436569319</v>
+        <v>337614.6981496544</v>
       </c>
     </row>
     <row r="18">
@@ -20160,28 +20160,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>234.5240362702476</v>
+        <v>268.681424902975</v>
       </c>
       <c r="AB18" t="n">
-        <v>320.8861328950661</v>
+        <v>367.6217789401481</v>
       </c>
       <c r="AC18" t="n">
-        <v>290.2612107381723</v>
+        <v>332.5364723185069</v>
       </c>
       <c r="AD18" t="n">
-        <v>234524.0362702476</v>
+        <v>268681.424902975</v>
       </c>
       <c r="AE18" t="n">
-        <v>320886.1328950661</v>
+        <v>367621.7789401481</v>
       </c>
       <c r="AF18" t="n">
-        <v>4.145798491992581e-06</v>
+        <v>5.998027276389919e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>8</v>
+        <v>7.389583333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>290261.2107381723</v>
+        <v>332536.4723185069</v>
       </c>
     </row>
     <row r="19">
@@ -20266,28 +20266,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>233.2017834900394</v>
+        <v>267.3591721227667</v>
       </c>
       <c r="AB19" t="n">
-        <v>319.0769683075104</v>
+        <v>365.8126143525914</v>
       </c>
       <c r="AC19" t="n">
-        <v>288.6247102796739</v>
+        <v>330.8999718600082</v>
       </c>
       <c r="AD19" t="n">
-        <v>233201.7834900393</v>
+        <v>267359.1721227667</v>
       </c>
       <c r="AE19" t="n">
-        <v>319076.9683075104</v>
+        <v>365812.6143525915</v>
       </c>
       <c r="AF19" t="n">
-        <v>4.145651441359728e-06</v>
+        <v>5.997814527577221e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>8</v>
+        <v>7.389583333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>288624.7102796739</v>
+        <v>330899.9718600082</v>
       </c>
     </row>
     <row r="20">
@@ -20372,28 +20372,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>232.5628150860846</v>
+        <v>266.7202037188119</v>
       </c>
       <c r="AB20" t="n">
-        <v>318.2027035479234</v>
+        <v>364.938349593004</v>
       </c>
       <c r="AC20" t="n">
-        <v>287.8338841217032</v>
+        <v>330.1091457020375</v>
       </c>
       <c r="AD20" t="n">
-        <v>232562.8150860846</v>
+        <v>266720.203718812</v>
       </c>
       <c r="AE20" t="n">
-        <v>318202.7035479234</v>
+        <v>364938.349593004</v>
       </c>
       <c r="AF20" t="n">
-        <v>4.153151023635174e-06</v>
+        <v>6.008664717024811e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>8</v>
+        <v>7.377083333333332</v>
       </c>
       <c r="AH20" t="n">
-        <v>287833.8841217033</v>
+        <v>330109.1457020375</v>
       </c>
     </row>
     <row r="21">
@@ -20478,28 +20478,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>232.8031151196431</v>
+        <v>266.9605037523705</v>
       </c>
       <c r="AB21" t="n">
-        <v>318.5314926551273</v>
+        <v>365.2671387002081</v>
       </c>
       <c r="AC21" t="n">
-        <v>288.1312940579742</v>
+        <v>330.4065556383084</v>
       </c>
       <c r="AD21" t="n">
-        <v>232803.1151196431</v>
+        <v>266960.5037523705</v>
       </c>
       <c r="AE21" t="n">
-        <v>318531.4926551273</v>
+        <v>365267.1387002081</v>
       </c>
       <c r="AF21" t="n">
-        <v>4.151239365408099e-06</v>
+        <v>6.005898982459738e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>8</v>
+        <v>7.379166666666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>288131.2940579742</v>
+        <v>330406.5556383084</v>
       </c>
     </row>
     <row r="22">
@@ -20584,28 +20584,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>233.453559557102</v>
+        <v>267.6109481898293</v>
       </c>
       <c r="AB22" t="n">
-        <v>319.4214594300414</v>
+        <v>366.1571054751227</v>
       </c>
       <c r="AC22" t="n">
-        <v>288.936323652967</v>
+        <v>331.2115852333014</v>
       </c>
       <c r="AD22" t="n">
-        <v>233453.559557102</v>
+        <v>267610.9481898294</v>
       </c>
       <c r="AE22" t="n">
-        <v>319421.4594300414</v>
+        <v>366157.1054751227</v>
       </c>
       <c r="AF22" t="n">
-        <v>4.151533466673804e-06</v>
+        <v>6.006324480085134e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>8</v>
+        <v>7.379166666666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>288936.323652967</v>
+        <v>331211.5852333014</v>
       </c>
     </row>
   </sheetData>
@@ -20881,28 +20881,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>465.4560355137422</v>
+        <v>513.9456395669152</v>
       </c>
       <c r="AB2" t="n">
-        <v>636.8574822609396</v>
+        <v>703.2030977368438</v>
       </c>
       <c r="AC2" t="n">
-        <v>576.076697989045</v>
+        <v>636.090381040585</v>
       </c>
       <c r="AD2" t="n">
-        <v>465456.0355137422</v>
+        <v>513945.6395669152</v>
       </c>
       <c r="AE2" t="n">
-        <v>636857.4822609395</v>
+        <v>703203.0977368437</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.683308467557587e-06</v>
+        <v>4.029483040440558e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.35208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>576076.6979890449</v>
+        <v>636090.381040585</v>
       </c>
     </row>
     <row r="3">
@@ -20987,28 +20987,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>273.846758397211</v>
+        <v>314.240463708634</v>
       </c>
       <c r="AB3" t="n">
-        <v>374.6892161053927</v>
+        <v>429.9576657569896</v>
       </c>
       <c r="AC3" t="n">
-        <v>338.9294031999108</v>
+        <v>388.9231095865156</v>
       </c>
       <c r="AD3" t="n">
-        <v>273846.758397211</v>
+        <v>314240.463708634</v>
       </c>
       <c r="AE3" t="n">
-        <v>374689.2161053927</v>
+        <v>429957.6657569896</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.687779307906114e-06</v>
+        <v>5.537881446638558e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.987499999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>338929.4031999108</v>
+        <v>388923.1095865156</v>
       </c>
     </row>
     <row r="4">
@@ -21093,28 +21093,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>241.8374526785818</v>
+        <v>274.1354382653598</v>
       </c>
       <c r="AB4" t="n">
-        <v>330.8926718701045</v>
+        <v>375.0842006366509</v>
       </c>
       <c r="AC4" t="n">
-        <v>299.312739677702</v>
+        <v>339.2866909618701</v>
       </c>
       <c r="AD4" t="n">
-        <v>241837.4526785818</v>
+        <v>274135.4382653598</v>
       </c>
       <c r="AE4" t="n">
-        <v>330892.6718701045</v>
+        <v>375084.2006366509</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.032837472732841e-06</v>
+        <v>6.056049983705943e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.21875</v>
       </c>
       <c r="AH4" t="n">
-        <v>299312.739677702</v>
+        <v>339286.6909618701</v>
       </c>
     </row>
     <row r="5">
@@ -21199,28 +21199,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>218.7239364849497</v>
+        <v>251.107173417745</v>
       </c>
       <c r="AB5" t="n">
-        <v>299.2677393176252</v>
+        <v>343.5759127366381</v>
       </c>
       <c r="AC5" t="n">
-        <v>270.7060463021496</v>
+        <v>310.7855098369779</v>
       </c>
       <c r="AD5" t="n">
-        <v>218723.9364849497</v>
+        <v>251107.173417745</v>
       </c>
       <c r="AE5" t="n">
-        <v>299267.7393176252</v>
+        <v>343575.9127366381</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.209105082980888e-06</v>
+        <v>6.320748341968118e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.875</v>
       </c>
       <c r="AH5" t="n">
-        <v>270706.0463021495</v>
+        <v>310785.5098369779</v>
       </c>
     </row>
     <row r="6">
@@ -21305,28 +21305,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>209.3423958435272</v>
+        <v>241.7256327763226</v>
       </c>
       <c r="AB6" t="n">
-        <v>286.4315015276748</v>
+        <v>330.7396749466877</v>
       </c>
       <c r="AC6" t="n">
-        <v>259.094881031095</v>
+        <v>299.1743445659234</v>
       </c>
       <c r="AD6" t="n">
-        <v>209342.3958435272</v>
+        <v>241725.6327763225</v>
       </c>
       <c r="AE6" t="n">
-        <v>286431.5015276747</v>
+        <v>330739.6749466876</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.316329243005422e-06</v>
+        <v>6.481765213329768e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.679166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>259094.881031095</v>
+        <v>299174.3445659234</v>
       </c>
     </row>
     <row r="7">
@@ -21411,28 +21411,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>202.7313908533426</v>
+        <v>235.1146277861379</v>
       </c>
       <c r="AB7" t="n">
-        <v>277.3860328431526</v>
+        <v>321.6942062621656</v>
       </c>
       <c r="AC7" t="n">
-        <v>250.9126991824257</v>
+        <v>290.9921627172541</v>
       </c>
       <c r="AD7" t="n">
-        <v>202731.3908533426</v>
+        <v>235114.6277861379</v>
       </c>
       <c r="AE7" t="n">
-        <v>277386.0328431526</v>
+        <v>321694.2062621656</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.383781830320559e-06</v>
+        <v>6.583057725877748e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.560416666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>250912.6991824257</v>
+        <v>290992.1627172541</v>
       </c>
     </row>
     <row r="8">
@@ -21517,28 +21517,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>195.7333661127902</v>
+        <v>227.9460108449933</v>
       </c>
       <c r="AB8" t="n">
-        <v>267.8110266620712</v>
+        <v>311.8857883062373</v>
       </c>
       <c r="AC8" t="n">
-        <v>242.2515181526581</v>
+        <v>282.1198464048355</v>
       </c>
       <c r="AD8" t="n">
-        <v>195733.3661127902</v>
+        <v>227946.0108449933</v>
       </c>
       <c r="AE8" t="n">
-        <v>267811.0266620712</v>
+        <v>311885.7883062373</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.445825483747218e-06</v>
+        <v>6.676227725627071e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.454166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>242251.5181526581</v>
+        <v>282119.8464048355</v>
       </c>
     </row>
     <row r="9">
@@ -21623,28 +21623,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>191.0546774632428</v>
+        <v>223.267322195446</v>
       </c>
       <c r="AB9" t="n">
-        <v>261.4094384425882</v>
+        <v>305.4842000867542</v>
       </c>
       <c r="AC9" t="n">
-        <v>236.460888528155</v>
+        <v>276.3292167803323</v>
       </c>
       <c r="AD9" t="n">
-        <v>191054.6774632428</v>
+        <v>223267.3221954459</v>
       </c>
       <c r="AE9" t="n">
-        <v>261409.4384425881</v>
+        <v>305484.2000867542</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.480824467731488e-06</v>
+        <v>6.728785161383099e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.395833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>236460.888528155</v>
+        <v>276329.2167803323</v>
       </c>
     </row>
     <row r="10">
@@ -21729,28 +21729,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>190.3933159451231</v>
+        <v>222.6059606773262</v>
       </c>
       <c r="AB10" t="n">
-        <v>260.5045344362863</v>
+        <v>304.5792960804523</v>
       </c>
       <c r="AC10" t="n">
-        <v>235.6423472901735</v>
+        <v>275.5106755423508</v>
       </c>
       <c r="AD10" t="n">
-        <v>190393.3159451231</v>
+        <v>222605.9606773262</v>
       </c>
       <c r="AE10" t="n">
-        <v>260504.5344362863</v>
+        <v>304579.2960804523</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.487028833074153e-06</v>
+        <v>6.738102161358031e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.3875</v>
       </c>
       <c r="AH10" t="n">
-        <v>235642.3472901735</v>
+        <v>275510.6755423509</v>
       </c>
     </row>
     <row r="11">
@@ -21835,28 +21835,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>191.1725809051792</v>
+        <v>223.3852256373823</v>
       </c>
       <c r="AB11" t="n">
-        <v>261.5707591333782</v>
+        <v>305.6455207775443</v>
       </c>
       <c r="AC11" t="n">
-        <v>236.6068129986311</v>
+        <v>276.4751412508084</v>
       </c>
       <c r="AD11" t="n">
-        <v>191172.5809051792</v>
+        <v>223385.2256373824</v>
       </c>
       <c r="AE11" t="n">
-        <v>261570.7591333782</v>
+        <v>305645.5207775443</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.486869746783315e-06</v>
+        <v>6.737863263922776e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.3875</v>
       </c>
       <c r="AH11" t="n">
-        <v>236606.8129986311</v>
+        <v>276475.1412508084</v>
       </c>
     </row>
   </sheetData>
@@ -22132,28 +22132,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>330.3534865385111</v>
+        <v>377.4172976364221</v>
       </c>
       <c r="AB2" t="n">
-        <v>452.004214449225</v>
+        <v>516.3989971021938</v>
       </c>
       <c r="AC2" t="n">
-        <v>408.8655666140895</v>
+        <v>467.1146015893042</v>
       </c>
       <c r="AD2" t="n">
-        <v>330353.4865385111</v>
+        <v>377417.2976364221</v>
       </c>
       <c r="AE2" t="n">
-        <v>452004.214449225</v>
+        <v>516398.9971021938</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.210565896685351e-06</v>
+        <v>4.924195006111703e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.75416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>408865.5666140895</v>
+        <v>467114.6015893042</v>
       </c>
     </row>
     <row r="3">
@@ -22238,28 +22238,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>224.3886842934638</v>
+        <v>255.7362009157646</v>
       </c>
       <c r="AB3" t="n">
-        <v>307.0184971802659</v>
+        <v>349.9095523777054</v>
       </c>
       <c r="AC3" t="n">
-        <v>277.7170827126391</v>
+        <v>316.5146758000229</v>
       </c>
       <c r="AD3" t="n">
-        <v>224388.6842934638</v>
+        <v>255736.2009157646</v>
       </c>
       <c r="AE3" t="n">
-        <v>307018.4971802658</v>
+        <v>349909.5523777055</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.087364913892029e-06</v>
+        <v>6.268982648175139e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.445833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>277717.0827126391</v>
+        <v>316514.6758000229</v>
       </c>
     </row>
     <row r="4">
@@ -22344,28 +22344,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>194.3173006432809</v>
+        <v>225.7500686116022</v>
       </c>
       <c r="AB4" t="n">
-        <v>265.8735034142902</v>
+        <v>308.8812032643791</v>
       </c>
       <c r="AC4" t="n">
-        <v>240.4989094043137</v>
+        <v>279.4020147424097</v>
       </c>
       <c r="AD4" t="n">
-        <v>194317.3006432809</v>
+        <v>225750.0686116022</v>
       </c>
       <c r="AE4" t="n">
-        <v>265873.5034142902</v>
+        <v>308881.2032643791</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.387640819992672e-06</v>
+        <v>6.729529842924515e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.868750000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>240498.9094043137</v>
+        <v>279402.0147424097</v>
       </c>
     </row>
     <row r="5">
@@ -22450,28 +22450,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>182.8000500875457</v>
+        <v>214.2328180558669</v>
       </c>
       <c r="AB5" t="n">
-        <v>250.1150930987069</v>
+        <v>293.1227929487958</v>
       </c>
       <c r="AC5" t="n">
-        <v>226.2444596521769</v>
+        <v>265.1475649902729</v>
       </c>
       <c r="AD5" t="n">
-        <v>182800.0500875456</v>
+        <v>214232.818055867</v>
       </c>
       <c r="AE5" t="n">
-        <v>250115.0930987069</v>
+        <v>293122.7929487958</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.534133039083714e-06</v>
+        <v>6.95421180769187e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.614583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>226244.4596521769</v>
+        <v>265147.5649902729</v>
       </c>
     </row>
     <row r="6">
@@ -22556,28 +22556,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>175.0714518308545</v>
+        <v>206.3336275985836</v>
       </c>
       <c r="AB6" t="n">
-        <v>239.5404840022161</v>
+        <v>282.3147720774581</v>
       </c>
       <c r="AC6" t="n">
-        <v>216.6790764062948</v>
+        <v>255.3710464617397</v>
       </c>
       <c r="AD6" t="n">
-        <v>175071.4518308545</v>
+        <v>206333.6275985836</v>
       </c>
       <c r="AE6" t="n">
-        <v>239540.4840022161</v>
+        <v>282314.7720774582</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.615002046907729e-06</v>
+        <v>7.078244385527243e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.481249999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>216679.0764062948</v>
+        <v>255371.0464617397</v>
       </c>
     </row>
     <row r="7">
@@ -22662,28 +22662,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>174.0999075765151</v>
+        <v>205.3620833442442</v>
       </c>
       <c r="AB7" t="n">
-        <v>238.2111742919221</v>
+        <v>280.9854623671642</v>
       </c>
       <c r="AC7" t="n">
-        <v>215.476634149053</v>
+        <v>254.1686042044979</v>
       </c>
       <c r="AD7" t="n">
-        <v>174099.9075765151</v>
+        <v>205362.0833442442</v>
       </c>
       <c r="AE7" t="n">
-        <v>238211.1742919221</v>
+        <v>280985.4623671642</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.631904995264387e-06</v>
+        <v>7.104169227615784e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.454166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>215476.634149053</v>
+        <v>254168.6042044979</v>
       </c>
     </row>
   </sheetData>
@@ -42196,28 +42196,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>254.0298912225753</v>
+        <v>292.3711916730355</v>
       </c>
       <c r="AB2" t="n">
-        <v>347.5749041784142</v>
+        <v>400.0351629536939</v>
       </c>
       <c r="AC2" t="n">
-        <v>314.4028431481719</v>
+        <v>361.8563684542701</v>
       </c>
       <c r="AD2" t="n">
-        <v>254029.8912225753</v>
+        <v>292371.1916730355</v>
       </c>
       <c r="AE2" t="n">
-        <v>347574.9041784141</v>
+        <v>400035.1629536939</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.666603421516543e-06</v>
+        <v>5.72899552102678e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.739583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>314402.8431481719</v>
+        <v>361856.3684542701</v>
       </c>
     </row>
     <row r="3">
@@ -42302,28 +42302,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>190.0970070334857</v>
+        <v>220.6847960478303</v>
       </c>
       <c r="AB3" t="n">
-        <v>260.0991115111576</v>
+        <v>301.9506738785757</v>
       </c>
       <c r="AC3" t="n">
-        <v>235.2756173600043</v>
+        <v>273.1329253541261</v>
       </c>
       <c r="AD3" t="n">
-        <v>190097.0070334857</v>
+        <v>220684.7960478303</v>
       </c>
       <c r="AE3" t="n">
-        <v>260099.1115111576</v>
+        <v>301950.6738785757</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.419329384576019e-06</v>
+        <v>6.90511499051243e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.081249999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>235275.6173600043</v>
+        <v>273132.9253541261</v>
       </c>
     </row>
     <row r="4">
@@ -42408,28 +42408,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>164.7889230023741</v>
+        <v>195.4619633627394</v>
       </c>
       <c r="AB4" t="n">
-        <v>225.4714744259402</v>
+        <v>267.4396814460076</v>
       </c>
       <c r="AC4" t="n">
-        <v>203.9527933579952</v>
+        <v>241.9156136028292</v>
       </c>
       <c r="AD4" t="n">
-        <v>164788.9230023741</v>
+        <v>195461.9633627394</v>
       </c>
       <c r="AE4" t="n">
-        <v>225471.4744259403</v>
+        <v>267439.6814460076</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.682466335907447e-06</v>
+        <v>7.316261286495231e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.627083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>203952.7933579952</v>
+        <v>241915.6136028292</v>
       </c>
     </row>
     <row r="5">
@@ -42514,28 +42514,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>161.6728371668713</v>
+        <v>192.3458775272365</v>
       </c>
       <c r="AB5" t="n">
-        <v>221.2079083138026</v>
+        <v>263.17611533387</v>
       </c>
       <c r="AC5" t="n">
-        <v>200.0961360116461</v>
+        <v>238.05895625648</v>
       </c>
       <c r="AD5" t="n">
-        <v>161672.8371668713</v>
+        <v>192345.8775272365</v>
       </c>
       <c r="AE5" t="n">
-        <v>221207.9083138026</v>
+        <v>263176.11533387</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.735093726173732e-06</v>
+        <v>7.398490545691791e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.541666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>200096.1360116461</v>
+        <v>238058.95625648</v>
       </c>
     </row>
   </sheetData>
@@ -42811,28 +42811,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.7633253817503</v>
+        <v>181.8450986723882</v>
       </c>
       <c r="AB2" t="n">
-        <v>209.0175212294872</v>
+        <v>248.808486443006</v>
       </c>
       <c r="AC2" t="n">
-        <v>189.069182361338</v>
+        <v>225.0625537018618</v>
       </c>
       <c r="AD2" t="n">
-        <v>152763.3253817504</v>
+        <v>181845.0986723882</v>
       </c>
       <c r="AE2" t="n">
-        <v>209017.5212294871</v>
+        <v>248808.486443006</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.622590443007339e-06</v>
+        <v>7.533325318044992e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.291666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>189069.182361338</v>
+        <v>225062.5537018618</v>
       </c>
     </row>
     <row r="3">
@@ -42917,28 +42917,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>138.2865479840194</v>
+        <v>174.5746470706992</v>
       </c>
       <c r="AB3" t="n">
-        <v>189.2097557235779</v>
+        <v>238.8607338118928</v>
       </c>
       <c r="AC3" t="n">
-        <v>171.151842194933</v>
+        <v>216.0642006201003</v>
       </c>
       <c r="AD3" t="n">
-        <v>138286.5479840194</v>
+        <v>174574.6470706992</v>
       </c>
       <c r="AE3" t="n">
-        <v>189209.7557235779</v>
+        <v>238860.7338118928</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.802349671745525e-06</v>
+        <v>7.826274642823291e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.98125</v>
       </c>
       <c r="AH3" t="n">
-        <v>171151.842194933</v>
+        <v>216064.2006201003</v>
       </c>
     </row>
   </sheetData>
@@ -43214,28 +43214,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>643.4531152520581</v>
+        <v>701.4482333805859</v>
       </c>
       <c r="AB2" t="n">
-        <v>880.4009394358471</v>
+        <v>959.7524186233363</v>
       </c>
       <c r="AC2" t="n">
-        <v>796.3767094265684</v>
+        <v>868.1549948109039</v>
       </c>
       <c r="AD2" t="n">
-        <v>643453.115252058</v>
+        <v>701448.2333805859</v>
       </c>
       <c r="AE2" t="n">
-        <v>880400.9394358471</v>
+        <v>959752.4186233364</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.23880464250768e-06</v>
+        <v>3.307567004467444e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.31875</v>
       </c>
       <c r="AH2" t="n">
-        <v>796376.7094265684</v>
+        <v>868154.9948109039</v>
       </c>
     </row>
     <row r="3">
@@ -43320,28 +43320,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>334.0342286849959</v>
+        <v>375.520206881102</v>
       </c>
       <c r="AB3" t="n">
-        <v>457.0403682369286</v>
+        <v>513.8033138370274</v>
       </c>
       <c r="AC3" t="n">
-        <v>413.4210769525809</v>
+        <v>464.7666466919009</v>
       </c>
       <c r="AD3" t="n">
-        <v>334034.2286849959</v>
+        <v>375520.2068811019</v>
       </c>
       <c r="AE3" t="n">
-        <v>457040.3682369286</v>
+        <v>513803.3138370274</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.349590258608225e-06</v>
+        <v>4.948620351907338e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.570833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>413421.0769525809</v>
+        <v>464766.6466919009</v>
       </c>
     </row>
     <row r="4">
@@ -43426,28 +43426,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>279.510258602348</v>
+        <v>312.7843820138045</v>
       </c>
       <c r="AB4" t="n">
-        <v>382.4382669420563</v>
+        <v>427.965390544333</v>
       </c>
       <c r="AC4" t="n">
-        <v>345.9388955005845</v>
+        <v>387.1209743239792</v>
       </c>
       <c r="AD4" t="n">
-        <v>279510.258602348</v>
+        <v>312784.3820138045</v>
       </c>
       <c r="AE4" t="n">
-        <v>382438.2669420562</v>
+        <v>427965.390544333</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.745497086455117e-06</v>
+        <v>5.533525499845121e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.558333333333332</v>
       </c>
       <c r="AH4" t="n">
-        <v>345938.8955005844</v>
+        <v>387120.9743239792</v>
       </c>
     </row>
     <row r="5">
@@ -43532,28 +43532,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>260.8275100530385</v>
+        <v>293.9310412639027</v>
       </c>
       <c r="AB5" t="n">
-        <v>356.8757061521958</v>
+        <v>402.1694179796256</v>
       </c>
       <c r="AC5" t="n">
-        <v>322.8159896352289</v>
+        <v>363.7869331759725</v>
       </c>
       <c r="AD5" t="n">
-        <v>260827.5100530385</v>
+        <v>293931.0412639027</v>
       </c>
       <c r="AE5" t="n">
-        <v>356875.7061521959</v>
+        <v>402169.4179796256</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.937064906381031e-06</v>
+        <v>5.816544119815015e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.141666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>322815.9896352289</v>
+        <v>363786.9331759725</v>
       </c>
     </row>
     <row r="6">
@@ -43638,28 +43638,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>240.5249316483532</v>
+        <v>273.7137142052409</v>
       </c>
       <c r="AB6" t="n">
-        <v>329.0968226922056</v>
+        <v>374.5071791724438</v>
       </c>
       <c r="AC6" t="n">
-        <v>297.688283824851</v>
+        <v>338.7647396163521</v>
       </c>
       <c r="AD6" t="n">
-        <v>240524.9316483532</v>
+        <v>273713.7142052409</v>
       </c>
       <c r="AE6" t="n">
-        <v>329096.8226922056</v>
+        <v>374507.1791724438</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.062314870573556e-06</v>
+        <v>6.001586012710994e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.891666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>297688.283824851</v>
+        <v>338764.7396163521</v>
       </c>
     </row>
     <row r="7">
@@ -43744,28 +43744,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>232.4135711577902</v>
+        <v>265.6023537146779</v>
       </c>
       <c r="AB7" t="n">
-        <v>317.9985014210537</v>
+        <v>363.4088579012861</v>
       </c>
       <c r="AC7" t="n">
-        <v>287.6491707592226</v>
+        <v>328.725626550722</v>
       </c>
       <c r="AD7" t="n">
-        <v>232413.5711577902</v>
+        <v>265602.3537146779</v>
       </c>
       <c r="AE7" t="n">
-        <v>317998.5014210537</v>
+        <v>363408.8579012861</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.145712266878655e-06</v>
+        <v>6.124795725179816e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.733333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>287649.1707592225</v>
+        <v>328725.6265507221</v>
       </c>
     </row>
     <row r="8">
@@ -43850,28 +43850,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>226.5907461794704</v>
+        <v>259.7795287363579</v>
       </c>
       <c r="AB8" t="n">
-        <v>310.0314554008124</v>
+        <v>355.4418118810408</v>
       </c>
       <c r="AC8" t="n">
-        <v>280.4424884293313</v>
+        <v>321.5189442208297</v>
       </c>
       <c r="AD8" t="n">
-        <v>226590.7461794704</v>
+        <v>259779.5287363579</v>
       </c>
       <c r="AE8" t="n">
-        <v>310031.4554008124</v>
+        <v>355441.8118810408</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.202490199049467e-06</v>
+        <v>6.208678352303423e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.627083333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>280442.4884293313</v>
+        <v>321518.9442208296</v>
       </c>
     </row>
     <row r="9">
@@ -43956,28 +43956,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>220.9043618864772</v>
+        <v>254.0931444433616</v>
       </c>
       <c r="AB9" t="n">
-        <v>302.2510935455733</v>
+        <v>347.661450025629</v>
       </c>
       <c r="AC9" t="n">
-        <v>273.4046733897471</v>
+        <v>314.4811291811964</v>
       </c>
       <c r="AD9" t="n">
-        <v>220904.3618864772</v>
+        <v>254093.1444433616</v>
       </c>
       <c r="AE9" t="n">
-        <v>302251.0935455733</v>
+        <v>347661.450025629</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.248651119513543e-06</v>
+        <v>6.276875610127495e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.545833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>273404.6733897472</v>
+        <v>314481.1291811964</v>
       </c>
     </row>
     <row r="10">
@@ -44062,28 +44062,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>216.5078897480121</v>
+        <v>249.5260801043042</v>
       </c>
       <c r="AB10" t="n">
-        <v>296.2356464070665</v>
+        <v>341.4125911122754</v>
       </c>
       <c r="AC10" t="n">
-        <v>267.9633320834045</v>
+        <v>308.8286525922027</v>
       </c>
       <c r="AD10" t="n">
-        <v>216507.8897480121</v>
+        <v>249526.0801043042</v>
       </c>
       <c r="AE10" t="n">
-        <v>296235.6464070665</v>
+        <v>341412.5911122754</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.284195028270882e-06</v>
+        <v>6.329387498652029e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.483333333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>267963.3320834045</v>
+        <v>308828.6525922027</v>
       </c>
     </row>
     <row r="11">
@@ -44168,28 +44168,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>211.6831150393909</v>
+        <v>244.7013053956831</v>
       </c>
       <c r="AB11" t="n">
-        <v>289.6341767966967</v>
+        <v>334.8111215019056</v>
       </c>
       <c r="AC11" t="n">
-        <v>261.9918974674255</v>
+        <v>302.8572179762238</v>
       </c>
       <c r="AD11" t="n">
-        <v>211683.1150393909</v>
+        <v>244701.3053956831</v>
       </c>
       <c r="AE11" t="n">
-        <v>289634.1767966967</v>
+        <v>334811.1215019056</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.319123458088699e-06</v>
+        <v>6.380990090405576e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.422916666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>261991.8974674255</v>
+        <v>302857.2179762237</v>
       </c>
     </row>
     <row r="12">
@@ -44274,28 +44274,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>208.2654124369294</v>
+        <v>241.2836027932215</v>
       </c>
       <c r="AB12" t="n">
-        <v>284.9579253176138</v>
+        <v>330.1348700228226</v>
       </c>
       <c r="AC12" t="n">
-        <v>257.7619408663446</v>
+        <v>298.6272613751428</v>
       </c>
       <c r="AD12" t="n">
-        <v>208265.4124369294</v>
+        <v>241283.6027932215</v>
       </c>
       <c r="AE12" t="n">
-        <v>284957.9253176138</v>
+        <v>330134.8700228226</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.336356868395288e-06</v>
+        <v>6.40645039999323e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.391666666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>257761.9408663446</v>
+        <v>298627.2613751428</v>
       </c>
     </row>
     <row r="13">
@@ -44380,28 +44380,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>206.8854252231239</v>
+        <v>239.903615579416</v>
       </c>
       <c r="AB13" t="n">
-        <v>283.0697659309469</v>
+        <v>328.2467106361557</v>
       </c>
       <c r="AC13" t="n">
-        <v>256.0539847614922</v>
+        <v>296.9193052702905</v>
       </c>
       <c r="AD13" t="n">
-        <v>206885.4252231239</v>
+        <v>239903.615579416</v>
       </c>
       <c r="AE13" t="n">
-        <v>283069.7659309469</v>
+        <v>328246.7106361557</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.34435809460906e-06</v>
+        <v>6.418271258016068e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.379166666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>256053.9847614922</v>
+        <v>296919.3052702905</v>
       </c>
     </row>
     <row r="14">
@@ -44486,28 +44486,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>206.2644558033015</v>
+        <v>239.2826461595936</v>
       </c>
       <c r="AB14" t="n">
-        <v>282.220128175509</v>
+        <v>327.3970728807178</v>
       </c>
       <c r="AC14" t="n">
-        <v>255.285435240959</v>
+        <v>296.1507557497572</v>
       </c>
       <c r="AD14" t="n">
-        <v>206264.4558033015</v>
+        <v>239282.6461595936</v>
       </c>
       <c r="AE14" t="n">
-        <v>282220.128175509</v>
+        <v>327397.0728807178</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.353436408966995e-06</v>
+        <v>6.431683385388136e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.362500000000001</v>
       </c>
       <c r="AH14" t="n">
-        <v>255285.435240959</v>
+        <v>296150.7557497572</v>
       </c>
     </row>
   </sheetData>
@@ -44783,28 +44783,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>998.0430558478226</v>
+        <v>1074.803901414183</v>
       </c>
       <c r="AB2" t="n">
-        <v>1365.566539563095</v>
+        <v>1470.594114916491</v>
       </c>
       <c r="AC2" t="n">
-        <v>1235.238785611868</v>
+        <v>1330.242676580664</v>
       </c>
       <c r="AD2" t="n">
-        <v>998043.0558478227</v>
+        <v>1074803.901414183</v>
       </c>
       <c r="AE2" t="n">
-        <v>1365566.539563095</v>
+        <v>1470594.114916491</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.738361713762983e-06</v>
+        <v>2.524395018682011e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.77083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1235238.785611868</v>
+        <v>1330242.676580664</v>
       </c>
     </row>
     <row r="3">
@@ -44889,28 +44889,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>418.7547190180517</v>
+        <v>461.3143818755643</v>
       </c>
       <c r="AB3" t="n">
-        <v>572.958680714862</v>
+        <v>631.1906890363218</v>
       </c>
       <c r="AC3" t="n">
-        <v>518.2763083799938</v>
+        <v>570.9507355563903</v>
       </c>
       <c r="AD3" t="n">
-        <v>418754.7190180518</v>
+        <v>461314.3818755643</v>
       </c>
       <c r="AE3" t="n">
-        <v>572958.680714862</v>
+        <v>631190.6890363218</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.968589207714832e-06</v>
+        <v>4.31089326757357e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.40625</v>
       </c>
       <c r="AH3" t="n">
-        <v>518276.3083799938</v>
+        <v>570950.7355563904</v>
       </c>
     </row>
     <row r="4">
@@ -44995,28 +44995,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>341.4474808187039</v>
+        <v>375.5635016900815</v>
       </c>
       <c r="AB4" t="n">
-        <v>467.1835068558699</v>
+        <v>513.8625517047054</v>
       </c>
       <c r="AC4" t="n">
-        <v>422.5961686577149</v>
+        <v>464.8202309806285</v>
       </c>
       <c r="AD4" t="n">
-        <v>341447.4808187039</v>
+        <v>375563.5016900815</v>
       </c>
       <c r="AE4" t="n">
-        <v>467183.5068558699</v>
+        <v>513862.5517047055</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.404810647657744e-06</v>
+        <v>4.944360526611652e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.072916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>422596.1686577149</v>
+        <v>464820.2309806285</v>
       </c>
     </row>
     <row r="5">
@@ -45101,28 +45101,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>304.7397277680948</v>
+        <v>338.7704077849008</v>
       </c>
       <c r="AB5" t="n">
-        <v>416.9583397002557</v>
+        <v>463.5206174268937</v>
       </c>
       <c r="AC5" t="n">
-        <v>377.1644209639678</v>
+        <v>419.2828602549426</v>
       </c>
       <c r="AD5" t="n">
-        <v>304739.7277680949</v>
+        <v>338770.4077849008</v>
       </c>
       <c r="AE5" t="n">
-        <v>416958.3397002558</v>
+        <v>463520.6174268937</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.63433844814436e-06</v>
+        <v>5.27767368670375e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>377164.4209639678</v>
+        <v>419282.8602549426</v>
       </c>
     </row>
     <row r="6">
@@ -45207,28 +45207,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>289.967116722746</v>
+        <v>323.997796739552</v>
       </c>
       <c r="AB6" t="n">
-        <v>396.7458015464065</v>
+        <v>443.3080792730444</v>
       </c>
       <c r="AC6" t="n">
-        <v>358.8809390830464</v>
+        <v>400.9993783740213</v>
       </c>
       <c r="AD6" t="n">
-        <v>289967.1167227461</v>
+        <v>323997.7967395521</v>
       </c>
       <c r="AE6" t="n">
-        <v>396745.8015464065</v>
+        <v>443308.0792730444</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.76867448641366e-06</v>
+        <v>5.472752319160753e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.195833333333335</v>
       </c>
       <c r="AH6" t="n">
-        <v>358880.9390830465</v>
+        <v>400999.3783740213</v>
       </c>
     </row>
     <row r="7">
@@ -45313,28 +45313,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>270.6881181324682</v>
+        <v>313.1623506268581</v>
       </c>
       <c r="AB7" t="n">
-        <v>370.3674251457978</v>
+        <v>428.4825438755115</v>
       </c>
       <c r="AC7" t="n">
-        <v>335.020077903828</v>
+        <v>387.5887712670593</v>
       </c>
       <c r="AD7" t="n">
-        <v>270688.1181324681</v>
+        <v>313162.3506268581</v>
       </c>
       <c r="AE7" t="n">
-        <v>370367.4251457978</v>
+        <v>428482.5438755114</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.868166188045779e-06</v>
+        <v>5.617231085583103e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.985416666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>335020.077903828</v>
+        <v>387588.7712670593</v>
       </c>
     </row>
     <row r="8">
@@ -45419,28 +45419,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>263.898170561376</v>
+        <v>298.0141019242026</v>
       </c>
       <c r="AB8" t="n">
-        <v>361.077119327684</v>
+        <v>407.7560417069712</v>
       </c>
       <c r="AC8" t="n">
-        <v>326.6164258339689</v>
+        <v>368.8403773756559</v>
       </c>
       <c r="AD8" t="n">
-        <v>263898.170561376</v>
+        <v>298014.1019242026</v>
       </c>
       <c r="AE8" t="n">
-        <v>361077.119327684</v>
+        <v>407756.0417069712</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.931923910403173e-06</v>
+        <v>5.709818074497574e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.85625</v>
       </c>
       <c r="AH8" t="n">
-        <v>326616.4258339689</v>
+        <v>368840.3773756559</v>
       </c>
     </row>
     <row r="9">
@@ -45525,28 +45525,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>257.6052537913827</v>
+        <v>291.7211851542125</v>
       </c>
       <c r="AB9" t="n">
-        <v>352.4668729789184</v>
+        <v>399.1457953583766</v>
       </c>
       <c r="AC9" t="n">
-        <v>318.8279293122788</v>
+        <v>361.0518808540145</v>
       </c>
       <c r="AD9" t="n">
-        <v>257605.2537913827</v>
+        <v>291721.1851542125</v>
       </c>
       <c r="AE9" t="n">
-        <v>352466.8729789184</v>
+        <v>399145.7953583766</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.989009312978978e-06</v>
+        <v>5.792715727362857e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.743750000000001</v>
       </c>
       <c r="AH9" t="n">
-        <v>318827.9293122788</v>
+        <v>361051.8808540145</v>
       </c>
     </row>
     <row r="10">
@@ -45631,28 +45631,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>252.9676753455273</v>
+        <v>287.083606708357</v>
       </c>
       <c r="AB10" t="n">
-        <v>346.1215335537807</v>
+        <v>392.8004559332357</v>
       </c>
       <c r="AC10" t="n">
-        <v>313.0881801761345</v>
+        <v>355.3121317178693</v>
       </c>
       <c r="AD10" t="n">
-        <v>252967.6753455273</v>
+        <v>287083.606708357</v>
       </c>
       <c r="AE10" t="n">
-        <v>346121.5335537807</v>
+        <v>392800.4559332357</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.028598410349732e-06</v>
+        <v>5.850205787921377e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>313088.1801761345</v>
+        <v>355312.1317178693</v>
       </c>
     </row>
     <row r="11">
@@ -45737,28 +45737,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>248.2260517252018</v>
+        <v>282.3419830880316</v>
       </c>
       <c r="AB11" t="n">
-        <v>339.6338349307841</v>
+        <v>386.3127573102358</v>
       </c>
       <c r="AC11" t="n">
-        <v>307.2196584041724</v>
+        <v>349.4436099459062</v>
       </c>
       <c r="AD11" t="n">
-        <v>248226.0517252018</v>
+        <v>282341.9830880315</v>
       </c>
       <c r="AE11" t="n">
-        <v>339633.8349307841</v>
+        <v>386312.7573102358</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.067149591310016e-06</v>
+        <v>5.906188618427802e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.595833333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>307219.6584041725</v>
+        <v>349443.6099459063</v>
       </c>
     </row>
     <row r="12">
@@ -45843,28 +45843,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>244.2081443888294</v>
+        <v>278.324075751659</v>
       </c>
       <c r="AB12" t="n">
-        <v>334.1363568556006</v>
+        <v>380.8152792350495</v>
       </c>
       <c r="AC12" t="n">
-        <v>302.2468519207237</v>
+        <v>344.4708034624568</v>
       </c>
       <c r="AD12" t="n">
-        <v>244208.1443888294</v>
+        <v>278324.075751659</v>
       </c>
       <c r="AE12" t="n">
-        <v>334136.3568556006</v>
+        <v>380815.2792350495</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.094580239300988e-06</v>
+        <v>5.946022555518912e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.54375</v>
       </c>
       <c r="AH12" t="n">
-        <v>302246.8519207237</v>
+        <v>344470.8034624568</v>
       </c>
     </row>
     <row r="13">
@@ -45949,28 +45949,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>241.6498298170894</v>
+        <v>275.765761179919</v>
       </c>
       <c r="AB13" t="n">
-        <v>330.6359579936745</v>
+        <v>377.3148803731215</v>
       </c>
       <c r="AC13" t="n">
-        <v>299.0805262133381</v>
+        <v>341.3044777550706</v>
       </c>
       <c r="AD13" t="n">
-        <v>241649.8298170894</v>
+        <v>275765.761179919</v>
       </c>
       <c r="AE13" t="n">
-        <v>330635.9579936746</v>
+        <v>377314.8803731215</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.112521365824813e-06</v>
+        <v>5.972076103562287e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.510416666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>299080.5262133381</v>
+        <v>341304.4777550706</v>
       </c>
     </row>
     <row r="14">
@@ -46055,28 +46055,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>238.0753527020436</v>
+        <v>272.0206918642809</v>
       </c>
       <c r="AB14" t="n">
-        <v>325.7452007100705</v>
+        <v>372.190711314668</v>
       </c>
       <c r="AC14" t="n">
-        <v>294.6565359406587</v>
+        <v>336.6693521997395</v>
       </c>
       <c r="AD14" t="n">
-        <v>238075.3527020436</v>
+        <v>272020.691864281</v>
       </c>
       <c r="AE14" t="n">
-        <v>325745.2007100706</v>
+        <v>372190.711314668</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.128979754619396e-06</v>
+        <v>5.995976465816953e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.481249999999999</v>
       </c>
       <c r="AH14" t="n">
-        <v>294656.5359406587</v>
+        <v>336669.3521997395</v>
       </c>
     </row>
     <row r="15">
@@ -46161,28 +46161,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>235.3190459038155</v>
+        <v>269.2643850660528</v>
       </c>
       <c r="AB15" t="n">
-        <v>321.9739001490628</v>
+        <v>368.4194107536584</v>
       </c>
       <c r="AC15" t="n">
-        <v>291.2451630121388</v>
+        <v>333.257979271219</v>
       </c>
       <c r="AD15" t="n">
-        <v>235319.0459038155</v>
+        <v>269264.3850660528</v>
       </c>
       <c r="AE15" t="n">
-        <v>321973.9001490629</v>
+        <v>368419.4107536584</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.150924273012173e-06</v>
+        <v>6.02784361548984e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.441666666666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>291245.1630121389</v>
+        <v>333257.9792712191</v>
       </c>
     </row>
     <row r="16">
@@ -46267,28 +46267,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>232.0093707378963</v>
+        <v>265.9547099001335</v>
       </c>
       <c r="AB16" t="n">
-        <v>317.4454565744911</v>
+        <v>363.8909671790843</v>
       </c>
       <c r="AC16" t="n">
-        <v>287.1489077366124</v>
+        <v>329.1617239956919</v>
       </c>
       <c r="AD16" t="n">
-        <v>232009.3707378963</v>
+        <v>265954.7099001335</v>
       </c>
       <c r="AE16" t="n">
-        <v>317445.4565744911</v>
+        <v>363890.9671790843</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.169755042173542e-06</v>
+        <v>6.055189075006439e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>7.408333333333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>287148.9077366124</v>
+        <v>329161.7239956919</v>
       </c>
     </row>
     <row r="17">
@@ -46373,28 +46373,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>228.4521659587637</v>
+        <v>262.3975051210009</v>
       </c>
       <c r="AB17" t="n">
-        <v>312.5783320628853</v>
+        <v>359.0238426674761</v>
       </c>
       <c r="AC17" t="n">
-        <v>282.7462947573405</v>
+        <v>324.7591110164193</v>
       </c>
       <c r="AD17" t="n">
-        <v>228452.1659587637</v>
+        <v>262397.5051210009</v>
       </c>
       <c r="AE17" t="n">
-        <v>312578.3320628853</v>
+        <v>359023.842667476</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.181765217780401e-06</v>
+        <v>6.07262987989498e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>8</v>
+        <v>7.3875</v>
       </c>
       <c r="AH17" t="n">
-        <v>282746.2947573405</v>
+        <v>324759.1110164193</v>
       </c>
     </row>
     <row r="18">
@@ -46479,28 +46479,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>227.944795154624</v>
+        <v>261.8901343168612</v>
       </c>
       <c r="AB18" t="n">
-        <v>311.8841249450416</v>
+        <v>358.329635549632</v>
       </c>
       <c r="AC18" t="n">
-        <v>282.1183417924978</v>
+        <v>324.1311580515765</v>
       </c>
       <c r="AD18" t="n">
-        <v>227944.795154624</v>
+        <v>261890.1343168612</v>
       </c>
       <c r="AE18" t="n">
-        <v>311884.1249450416</v>
+        <v>358329.635549632</v>
       </c>
       <c r="AF18" t="n">
-        <v>4.188140990016141e-06</v>
+        <v>6.081888578786428e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>8</v>
+        <v>7.375</v>
       </c>
       <c r="AH18" t="n">
-        <v>282118.3417924978</v>
+        <v>324131.1580515765</v>
       </c>
     </row>
     <row r="19">
@@ -46585,28 +46585,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>227.491927755573</v>
+        <v>261.4372669178102</v>
       </c>
       <c r="AB19" t="n">
-        <v>311.2644917905608</v>
+        <v>357.7100023951508</v>
       </c>
       <c r="AC19" t="n">
-        <v>281.5578455566198</v>
+        <v>323.5706618156984</v>
       </c>
       <c r="AD19" t="n">
-        <v>227491.927755573</v>
+        <v>261437.2669178103</v>
       </c>
       <c r="AE19" t="n">
-        <v>311264.4917905608</v>
+        <v>357710.0023951508</v>
       </c>
       <c r="AF19" t="n">
-        <v>4.187251347378595e-06</v>
+        <v>6.080596667313202e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>8</v>
+        <v>7.377083333333332</v>
       </c>
       <c r="AH19" t="n">
-        <v>281557.8455566198</v>
+        <v>323570.6618156984</v>
       </c>
     </row>
     <row r="20">
@@ -46691,28 +46691,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>226.8557972907597</v>
+        <v>260.8011364529968</v>
       </c>
       <c r="AB20" t="n">
-        <v>310.3941100245081</v>
+        <v>356.8396206290977</v>
       </c>
       <c r="AC20" t="n">
-        <v>280.7705318047304</v>
+        <v>322.7833480638089</v>
       </c>
       <c r="AD20" t="n">
-        <v>226855.7972907597</v>
+        <v>260801.1364529968</v>
       </c>
       <c r="AE20" t="n">
-        <v>310394.1100245081</v>
+        <v>356839.6206290977</v>
       </c>
       <c r="AF20" t="n">
-        <v>4.197482237710363e-06</v>
+        <v>6.095453649255292e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>8</v>
+        <v>7.358333333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>280770.5318047304</v>
+        <v>322783.3480638089</v>
       </c>
     </row>
   </sheetData>
@@ -46988,28 +46988,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.4679042998299</v>
+        <v>161.8453088348534</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.6166748513172</v>
+        <v>221.4438916588487</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.1879957076716</v>
+        <v>200.3095974374457</v>
       </c>
       <c r="AD2" t="n">
-        <v>133467.9042998299</v>
+        <v>161845.3088348534</v>
       </c>
       <c r="AE2" t="n">
-        <v>182616.6748513172</v>
+        <v>221443.8916588486</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.687059080189476e-06</v>
+        <v>7.813048236187005e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.46875</v>
       </c>
       <c r="AH2" t="n">
-        <v>165187.9957076716</v>
+        <v>200309.5974374457</v>
       </c>
     </row>
   </sheetData>
@@ -47285,28 +47285,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>374.0275554691051</v>
+        <v>421.5122091234081</v>
       </c>
       <c r="AB2" t="n">
-        <v>511.7610023240006</v>
+        <v>576.7316003288884</v>
       </c>
       <c r="AC2" t="n">
-        <v>462.9192505232751</v>
+        <v>521.6891458413833</v>
       </c>
       <c r="AD2" t="n">
-        <v>374027.5554691051</v>
+        <v>421512.2091234081</v>
       </c>
       <c r="AE2" t="n">
-        <v>511761.0023240006</v>
+        <v>576731.6003288884</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.025944268563763e-06</v>
+        <v>4.605204619288448e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.24375</v>
       </c>
       <c r="AH2" t="n">
-        <v>462919.2505232751</v>
+        <v>521689.1458413833</v>
       </c>
     </row>
     <row r="3">
@@ -47391,28 +47391,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>240.6954034787992</v>
+        <v>280.32276750331</v>
       </c>
       <c r="AB3" t="n">
-        <v>329.3300697713082</v>
+        <v>383.5499774657152</v>
       </c>
       <c r="AC3" t="n">
-        <v>297.8992701300883</v>
+        <v>346.9445059321609</v>
       </c>
       <c r="AD3" t="n">
-        <v>240695.4034787992</v>
+        <v>280322.76750331</v>
       </c>
       <c r="AE3" t="n">
-        <v>329330.0697713082</v>
+        <v>383549.9774657152</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.945158531259145e-06</v>
+        <v>6.004162892465711e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.622916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>297899.2701300883</v>
+        <v>346944.5059321609</v>
       </c>
     </row>
     <row r="4">
@@ -47497,28 +47497,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>207.7918923642612</v>
+        <v>247.3339155341968</v>
       </c>
       <c r="AB4" t="n">
-        <v>284.3100342639582</v>
+        <v>338.4131748359806</v>
       </c>
       <c r="AC4" t="n">
-        <v>257.1758836255289</v>
+        <v>306.1154963956093</v>
       </c>
       <c r="AD4" t="n">
-        <v>207791.8923642612</v>
+        <v>247333.9155341968</v>
       </c>
       <c r="AE4" t="n">
-        <v>284310.0342639582</v>
+        <v>338413.1748359806</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.26049033819906e-06</v>
+        <v>6.484068457487081e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.985416666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>257175.8836255289</v>
+        <v>306115.4963956093</v>
       </c>
     </row>
     <row r="5">
@@ -47603,28 +47603,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>194.732135154705</v>
+        <v>226.5022990579681</v>
       </c>
       <c r="AB5" t="n">
-        <v>266.4410982940274</v>
+        <v>309.9104381471615</v>
       </c>
       <c r="AC5" t="n">
-        <v>241.0123338253534</v>
+        <v>280.3330208925199</v>
       </c>
       <c r="AD5" t="n">
-        <v>194732.135154705</v>
+        <v>226502.2990579681</v>
       </c>
       <c r="AE5" t="n">
-        <v>266441.0982940274</v>
+        <v>309910.4381471615</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.422483684902527e-06</v>
+        <v>6.730607204509971e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.693750000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>241012.3338253534</v>
+        <v>280333.0208925199</v>
       </c>
     </row>
     <row r="6">
@@ -47709,28 +47709,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>186.0230550692482</v>
+        <v>217.7932189725112</v>
       </c>
       <c r="AB6" t="n">
-        <v>254.5249507036146</v>
+        <v>297.9942905567488</v>
       </c>
       <c r="AC6" t="n">
-        <v>230.2334466365477</v>
+        <v>269.5541337037142</v>
       </c>
       <c r="AD6" t="n">
-        <v>186023.0550692482</v>
+        <v>217793.2189725112</v>
       </c>
       <c r="AE6" t="n">
-        <v>254524.9507036147</v>
+        <v>297994.2905567487</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.519483733231015e-06</v>
+        <v>6.878232220368434e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.527083333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>230233.4466365477</v>
+        <v>269554.1337037142</v>
       </c>
     </row>
     <row r="7">
@@ -47815,28 +47815,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>180.4397302947964</v>
+        <v>212.0393019974673</v>
       </c>
       <c r="AB7" t="n">
-        <v>246.8855994283088</v>
+        <v>290.1215275065961</v>
       </c>
       <c r="AC7" t="n">
-        <v>223.3231843250578</v>
+        <v>262.4327361095733</v>
       </c>
       <c r="AD7" t="n">
-        <v>180439.7302947964</v>
+        <v>212039.3019974673</v>
       </c>
       <c r="AE7" t="n">
-        <v>246885.5994283088</v>
+        <v>290121.5275065961</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.569943354331188e-06</v>
+        <v>6.955027051850363e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.443749999999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>223323.1843250578</v>
+        <v>262432.7361095733</v>
       </c>
     </row>
     <row r="8">
@@ -47921,28 +47921,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>179.7538630649632</v>
+        <v>211.353434767634</v>
       </c>
       <c r="AB8" t="n">
-        <v>245.9471656261248</v>
+        <v>289.183093704412</v>
       </c>
       <c r="AC8" t="n">
-        <v>222.4743133278538</v>
+        <v>261.5838651123693</v>
       </c>
       <c r="AD8" t="n">
-        <v>179753.8630649632</v>
+        <v>211353.434767634</v>
       </c>
       <c r="AE8" t="n">
-        <v>245947.1656261248</v>
+        <v>289183.0937044121</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.586599928286584e-06</v>
+        <v>6.98037680204828e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>222474.3133278538</v>
+        <v>261583.8651123692</v>
       </c>
     </row>
   </sheetData>
@@ -48218,28 +48218,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>513.2801572399932</v>
+        <v>570.3583644566398</v>
       </c>
       <c r="AB2" t="n">
-        <v>702.2925554581409</v>
+        <v>780.3894766847399</v>
       </c>
       <c r="AC2" t="n">
-        <v>635.2667396390075</v>
+        <v>705.910200313457</v>
       </c>
       <c r="AD2" t="n">
-        <v>513280.1572399932</v>
+        <v>570358.3644566399</v>
       </c>
       <c r="AE2" t="n">
-        <v>702292.5554581409</v>
+        <v>780389.4766847398</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.527668571812534e-06</v>
+        <v>3.77358344180061e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.95833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>635266.7396390075</v>
+        <v>705910.2003134571</v>
       </c>
     </row>
     <row r="3">
@@ -48324,28 +48324,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>299.1167714819876</v>
+        <v>331.7817456026634</v>
       </c>
       <c r="AB3" t="n">
-        <v>409.2647628422802</v>
+        <v>453.958421511141</v>
       </c>
       <c r="AC3" t="n">
-        <v>370.2051082833145</v>
+        <v>410.6332668967631</v>
       </c>
       <c r="AD3" t="n">
-        <v>299116.7714819876</v>
+        <v>331781.7456026634</v>
       </c>
       <c r="AE3" t="n">
-        <v>409264.7628422802</v>
+        <v>453958.421511141</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.567381967682179e-06</v>
+        <v>5.32578268921166e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.18125</v>
       </c>
       <c r="AH3" t="n">
-        <v>370205.1082833145</v>
+        <v>410633.2668967631</v>
       </c>
     </row>
     <row r="4">
@@ -48430,28 +48430,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>254.705318306669</v>
+        <v>287.2849515727764</v>
       </c>
       <c r="AB4" t="n">
-        <v>348.4990533126107</v>
+        <v>393.0759448594428</v>
       </c>
       <c r="AC4" t="n">
-        <v>315.2387927860524</v>
+        <v>355.5613283676103</v>
       </c>
       <c r="AD4" t="n">
-        <v>254705.318306669</v>
+        <v>287284.9515727764</v>
       </c>
       <c r="AE4" t="n">
-        <v>348499.0533126107</v>
+        <v>393075.9448594428</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.930251847867744e-06</v>
+        <v>5.867515013878937e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>315238.7927860525</v>
+        <v>355561.3283676103</v>
       </c>
     </row>
     <row r="5">
@@ -48536,28 +48536,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>229.6761891370197</v>
+        <v>270.3366131930352</v>
       </c>
       <c r="AB5" t="n">
-        <v>314.2530945754657</v>
+        <v>369.8864805803622</v>
       </c>
       <c r="AC5" t="n">
-        <v>284.2612202862647</v>
+        <v>334.5850340127076</v>
       </c>
       <c r="AD5" t="n">
-        <v>229676.1891370197</v>
+        <v>270336.6131930352</v>
       </c>
       <c r="AE5" t="n">
-        <v>314253.0945754657</v>
+        <v>369886.4805803621</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.117661248726147e-06</v>
+        <v>6.147300512580581e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.954166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>284261.2202862647</v>
+        <v>334585.0340127076</v>
       </c>
     </row>
     <row r="6">
@@ -48642,28 +48642,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>219.6579522657022</v>
+        <v>252.3228368778265</v>
       </c>
       <c r="AB6" t="n">
-        <v>300.5457009147182</v>
+        <v>345.2392371140076</v>
       </c>
       <c r="AC6" t="n">
-        <v>271.8620410380468</v>
+        <v>312.2900888702622</v>
       </c>
       <c r="AD6" t="n">
-        <v>219657.9522657022</v>
+        <v>252322.8368778265</v>
       </c>
       <c r="AE6" t="n">
-        <v>300545.7009147182</v>
+        <v>345239.2371140075</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.230861557969477e-06</v>
+        <v>6.316298464816472e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.741666666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>271862.0410380468</v>
+        <v>312290.0888702622</v>
       </c>
     </row>
     <row r="7">
@@ -48748,28 +48748,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>212.3669471309316</v>
+        <v>245.031831743056</v>
       </c>
       <c r="AB7" t="n">
-        <v>290.569826032885</v>
+        <v>335.2633622321743</v>
       </c>
       <c r="AC7" t="n">
-        <v>262.8382496537042</v>
+        <v>303.2662974859196</v>
       </c>
       <c r="AD7" t="n">
-        <v>212366.9471309316</v>
+        <v>245031.831743056</v>
       </c>
       <c r="AE7" t="n">
-        <v>290569.826032885</v>
+        <v>335263.3622321743</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.304756204281096e-06</v>
+        <v>6.426616572526013e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.608333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>262838.2496537042</v>
+        <v>303266.2974859196</v>
       </c>
     </row>
     <row r="8">
@@ -48854,28 +48854,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>206.8395953682474</v>
+        <v>239.5044799803717</v>
       </c>
       <c r="AB8" t="n">
-        <v>283.0070595016344</v>
+        <v>327.7005957009238</v>
       </c>
       <c r="AC8" t="n">
-        <v>255.9972629457843</v>
+        <v>296.4253107779997</v>
       </c>
       <c r="AD8" t="n">
-        <v>206839.5953682474</v>
+        <v>239504.4799803717</v>
       </c>
       <c r="AE8" t="n">
-        <v>283007.0595016344</v>
+        <v>327700.5957009238</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.353023558361238e-06</v>
+        <v>6.498675421604372e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.524999999999999</v>
       </c>
       <c r="AH8" t="n">
-        <v>255997.2629457843</v>
+        <v>296425.3107779997</v>
       </c>
     </row>
     <row r="9">
@@ -48960,28 +48960,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>201.1687414830177</v>
+        <v>233.6630338945498</v>
       </c>
       <c r="AB9" t="n">
-        <v>275.2479470354505</v>
+        <v>319.7080714598929</v>
       </c>
       <c r="AC9" t="n">
-        <v>248.9786692833877</v>
+        <v>289.1955818329521</v>
       </c>
       <c r="AD9" t="n">
-        <v>201168.7414830177</v>
+        <v>233663.0338945498</v>
       </c>
       <c r="AE9" t="n">
-        <v>275247.9470354505</v>
+        <v>319708.071459893</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.399718685924112e-06</v>
+        <v>6.568387076901678e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.445833333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>248978.6692833877</v>
+        <v>289195.5818329521</v>
       </c>
     </row>
     <row r="10">
@@ -49066,28 +49066,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>197.243204826987</v>
+        <v>229.737497238519</v>
       </c>
       <c r="AB10" t="n">
-        <v>269.8768546002173</v>
+        <v>314.3369790246597</v>
       </c>
       <c r="AC10" t="n">
-        <v>244.1201863717959</v>
+        <v>284.3370989213602</v>
       </c>
       <c r="AD10" t="n">
-        <v>197243.204826987</v>
+        <v>229737.497238519</v>
       </c>
       <c r="AE10" t="n">
-        <v>269876.8546002173</v>
+        <v>314336.9790246597</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.424088196941773e-06</v>
+        <v>6.604768580508015e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.404166666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>244120.1863717959</v>
+        <v>284337.0989213602</v>
       </c>
     </row>
     <row r="11">
@@ -49172,28 +49172,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>195.5994930582395</v>
+        <v>228.0937854697716</v>
       </c>
       <c r="AB11" t="n">
-        <v>267.6278556427728</v>
+        <v>312.0879800672151</v>
       </c>
       <c r="AC11" t="n">
-        <v>242.0858287183593</v>
+        <v>282.3027412679237</v>
       </c>
       <c r="AD11" t="n">
-        <v>195599.4930582395</v>
+        <v>228093.7854697716</v>
       </c>
       <c r="AE11" t="n">
-        <v>267627.8556427727</v>
+        <v>312087.9800672152</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.440911020676546e-06</v>
+        <v>6.629883553965295e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.375</v>
       </c>
       <c r="AH11" t="n">
-        <v>242085.8287183593</v>
+        <v>282302.7412679237</v>
       </c>
     </row>
   </sheetData>
